--- a/tables/2020.xlsx
+++ b/tables/2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\CoimbraProject\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E85418-6CE1-4DFE-A7E4-A69379471448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABC8210-AAAD-4D46-87EC-1396504F8226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" xr2:uid="{25FFA7CC-1336-4991-AAA4-9BF994AEFD79}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="366">
   <si>
     <t>Population density (No./km2)</t>
   </si>
@@ -89,12 +89,6 @@
     <t xml:space="preserve"> Continente</t>
   </si>
   <si>
-    <t xml:space="preserve">  Norte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Alto Minho</t>
-  </si>
-  <si>
     <t>Arcos de Valdevez</t>
   </si>
   <si>
@@ -137,9 +131,6 @@
     <t>Vila Verde</t>
   </si>
   <si>
-    <t xml:space="preserve">   Ave</t>
-  </si>
-  <si>
     <t>Cabeceiras de Basto</t>
   </si>
   <si>
@@ -155,9 +146,6 @@
     <t>Vizela</t>
   </si>
   <si>
-    <t xml:space="preserve">   A. M. Porto</t>
-  </si>
-  <si>
     <t>Arouca</t>
   </si>
   <si>
@@ -239,9 +227,6 @@
     <t>Resende</t>
   </si>
   <si>
-    <t xml:space="preserve">   Douro</t>
-  </si>
-  <si>
     <t>Armamar</t>
   </si>
   <si>
@@ -290,12 +275,6 @@
     <t>Vinhais</t>
   </si>
   <si>
-    <t xml:space="preserve">  Centro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   Oeste</t>
-  </si>
-  <si>
     <t>Alenquer</t>
   </si>
   <si>
@@ -434,9 +413,6 @@
     <t>Vouzela</t>
   </si>
   <si>
-    <t xml:space="preserve">   Beira Baixa</t>
-  </si>
-  <si>
     <t>Castelo Branco</t>
   </si>
   <si>
@@ -473,9 +449,6 @@
     <t>Vila Nova da Barquinha</t>
   </si>
   <si>
-    <t xml:space="preserve">   Beiras e Serra da Estrela</t>
-  </si>
-  <si>
     <t>Almeida</t>
   </si>
   <si>
@@ -512,9 +485,6 @@
     <t>Trancoso</t>
   </si>
   <si>
-    <t xml:space="preserve">  A. M. Lisboa</t>
-  </si>
-  <si>
     <t>Alcochete</t>
   </si>
   <si>
@@ -569,18 +539,12 @@
     <t xml:space="preserve">  Alentejo</t>
   </si>
   <si>
-    <t xml:space="preserve">   Alentejo Litoral</t>
-  </si>
-  <si>
     <t>Odemira</t>
   </si>
   <si>
     <t>Sines</t>
   </si>
   <si>
-    <t xml:space="preserve">   Baixo Alentejo</t>
-  </si>
-  <si>
     <t>Aljustrel</t>
   </si>
   <si>
@@ -638,9 +602,6 @@
     <t>Salvaterra de Magos</t>
   </si>
   <si>
-    <t xml:space="preserve">   Alto Alentejo</t>
-  </si>
-  <si>
     <t>Arronches</t>
   </si>
   <si>
@@ -677,9 +638,6 @@
     <t>Sousel</t>
   </si>
   <si>
-    <t xml:space="preserve">   Alentejo Central</t>
-  </si>
-  <si>
     <t>Alandroal</t>
   </si>
   <si>
@@ -713,9 +671,6 @@
     <t>Viana do Alentejo</t>
   </si>
   <si>
-    <t xml:space="preserve">  Algarve</t>
-  </si>
-  <si>
     <t>Albufeira</t>
   </si>
   <si>
@@ -749,9 +704,6 @@
     <t>Vila do Bispo</t>
   </si>
   <si>
-    <t xml:space="preserve">  Santa Maria</t>
-  </si>
-  <si>
     <t>Vila do Porto</t>
   </si>
   <si>
@@ -770,12 +722,6 @@
     <t>Vila Franca do Campo</t>
   </si>
   <si>
-    <t xml:space="preserve">  Terceira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Graciosa</t>
-  </si>
-  <si>
     <t>Santa Cruz da Graciosa</t>
   </si>
   <si>
@@ -785,39 +731,24 @@
     <t>Velas</t>
   </si>
   <si>
-    <t xml:space="preserve">  Pico</t>
-  </si>
-  <si>
     <t>Lajes do Pico</t>
   </si>
   <si>
     <t>Madalena</t>
   </si>
   <si>
-    <t xml:space="preserve">  Faial</t>
-  </si>
-  <si>
     <t>Horta</t>
   </si>
   <si>
-    <t xml:space="preserve">  Flores</t>
-  </si>
-  <si>
     <t>Lajes das Flores</t>
   </si>
   <si>
     <t>Santa Cruz das Flores</t>
   </si>
   <si>
-    <t xml:space="preserve">  Corvo</t>
-  </si>
-  <si>
     <t>Corvo</t>
   </si>
   <si>
-    <t xml:space="preserve"> R. A. Madeira</t>
-  </si>
-  <si>
     <t>Calheta (R.A.M.)</t>
   </si>
   <si>
@@ -884,15 +815,9 @@
     <t>São João da Madeira</t>
   </si>
   <si>
-    <t xml:space="preserve">   Alto Tâmega</t>
-  </si>
-  <si>
     <t>Valpaços</t>
   </si>
   <si>
-    <t xml:space="preserve">   Tâmega e Sousa</t>
-  </si>
-  <si>
     <t>Baião</t>
   </si>
   <si>
@@ -932,9 +857,6 @@
     <t>Vila Nova de Foz Côa</t>
   </si>
   <si>
-    <t xml:space="preserve">   Terras de Trás-os-Montes</t>
-  </si>
-  <si>
     <t>Alfândega da Fé</t>
   </si>
   <si>
@@ -956,18 +878,12 @@
     <t>Sobral de Monte Agraço</t>
   </si>
   <si>
-    <t xml:space="preserve">   Região de Aveiro</t>
-  </si>
-  <si>
     <t>Águeda</t>
   </si>
   <si>
     <t>Ílhavo</t>
   </si>
   <si>
-    <t xml:space="preserve">   Região de Coimbra</t>
-  </si>
-  <si>
     <t>Góis</t>
   </si>
   <si>
@@ -980,9 +896,6 @@
     <t>Tábua</t>
   </si>
   <si>
-    <t xml:space="preserve">   Região de Leiria</t>
-  </si>
-  <si>
     <t>Alvaiázere</t>
   </si>
   <si>
@@ -1001,9 +914,6 @@
     <t>Porto de Mós</t>
   </si>
   <si>
-    <t xml:space="preserve">   Viseu Dão Lafões</t>
-  </si>
-  <si>
     <t>Santa Comba Dão</t>
   </si>
   <si>
@@ -1019,9 +929,6 @@
     <t>Vila Velha de Ródão</t>
   </si>
   <si>
-    <t xml:space="preserve">   Médio Tejo</t>
-  </si>
-  <si>
     <t>Constância</t>
   </si>
   <si>
@@ -1064,9 +971,6 @@
     <t>Mértola</t>
   </si>
   <si>
-    <t xml:space="preserve">   Lezíria do Tejo</t>
-  </si>
-  <si>
     <t>Alpiarça</t>
   </si>
   <si>
@@ -1112,9 +1016,6 @@
     <t xml:space="preserve"> R. A. Açores</t>
   </si>
   <si>
-    <t xml:space="preserve">  São Miguel</t>
-  </si>
-  <si>
     <t>Povoação</t>
   </si>
   <si>
@@ -1124,9 +1025,6 @@
     <t>Vila da Praia da Vitória</t>
   </si>
   <si>
-    <t xml:space="preserve">  São Jorge</t>
-  </si>
-  <si>
     <t>São Roque do Pico</t>
   </si>
   <si>
@@ -1140,6 +1038,105 @@
   </si>
   <si>
     <t>Border</t>
+  </si>
+  <si>
+    <t>Alentejo Litoral</t>
+  </si>
+  <si>
+    <t>Norte</t>
+  </si>
+  <si>
+    <t>Alto Minho</t>
+  </si>
+  <si>
+    <t>A. M. Porto</t>
+  </si>
+  <si>
+    <t>Ave</t>
+  </si>
+  <si>
+    <t>Alto Tâmega</t>
+  </si>
+  <si>
+    <t>Tâmega e Sousa</t>
+  </si>
+  <si>
+    <t>Douro</t>
+  </si>
+  <si>
+    <t>Terras de Trás-os-Montes</t>
+  </si>
+  <si>
+    <t>Centro</t>
+  </si>
+  <si>
+    <t>Oeste</t>
+  </si>
+  <si>
+    <t>Região de Aveiro</t>
+  </si>
+  <si>
+    <t>Região de Coimbra</t>
+  </si>
+  <si>
+    <t>Região de Leiria</t>
+  </si>
+  <si>
+    <t>Viseu Dão Lafões</t>
+  </si>
+  <si>
+    <t>Beira Baixa</t>
+  </si>
+  <si>
+    <t>Médio Tejo</t>
+  </si>
+  <si>
+    <t>Beiras e Serra da Estrela</t>
+  </si>
+  <si>
+    <t>A. M. Lisboa</t>
+  </si>
+  <si>
+    <t>Baixo Alentejo</t>
+  </si>
+  <si>
+    <t>Lezíria do Tejo</t>
+  </si>
+  <si>
+    <t>Alto Alentejo</t>
+  </si>
+  <si>
+    <t>Alentejo Central</t>
+  </si>
+  <si>
+    <t>Algarve</t>
+  </si>
+  <si>
+    <t>Santa Maria</t>
+  </si>
+  <si>
+    <t>São Miguel</t>
+  </si>
+  <si>
+    <t>Terceira</t>
+  </si>
+  <si>
+    <t>Graciosa</t>
+  </si>
+  <si>
+    <t>São Jorge</t>
+  </si>
+  <si>
+    <t>Pico</t>
+  </si>
+  <si>
+    <t>Faial</t>
+  </si>
+  <si>
+    <t>Flores</t>
+  </si>
+  <si>
+    <t>R. A. Madeira</t>
   </si>
 </sst>
 </file>
@@ -2046,7 +2043,7 @@
   <dimension ref="A1:S348"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2056,19 +2053,19 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>366</v>
+        <v>332</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>365</v>
+        <v>331</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
@@ -2233,7 +2230,7 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>16</v>
+        <v>334</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
@@ -2292,7 +2289,7 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
-        <v>17</v>
+        <v>335</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
@@ -2351,7 +2348,7 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -2393,10 +2390,10 @@
         <v>28.1</v>
       </c>
       <c r="O6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q6">
         <v>34.299999999999997</v>
@@ -2410,7 +2407,7 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -2452,10 +2449,10 @@
         <v>34.799999999999997</v>
       </c>
       <c r="O7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q7">
         <v>38.5</v>
@@ -2469,7 +2466,7 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -2511,10 +2508,10 @@
         <v>24.3</v>
       </c>
       <c r="O8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q8">
         <v>31.4</v>
@@ -2528,7 +2525,7 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -2570,10 +2567,10 @@
         <v>27.8</v>
       </c>
       <c r="O9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q9">
         <v>36.5</v>
@@ -2587,7 +2584,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1">
         <v>0</v>
@@ -2629,10 +2626,10 @@
         <v>33.4</v>
       </c>
       <c r="O10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q10">
         <v>37.799999999999997</v>
@@ -2646,7 +2643,7 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -2688,10 +2685,10 @@
         <v>25.6</v>
       </c>
       <c r="O11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q11">
         <v>41</v>
@@ -2705,7 +2702,7 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -2747,10 +2744,10 @@
         <v>30.1</v>
       </c>
       <c r="O12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q12">
         <v>43.1</v>
@@ -2764,7 +2761,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -2806,10 +2803,10 @@
         <v>31.6</v>
       </c>
       <c r="O13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q13">
         <v>40.1</v>
@@ -2823,7 +2820,7 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -2865,10 +2862,10 @@
         <v>34.4</v>
       </c>
       <c r="O14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q14">
         <v>40.5</v>
@@ -2882,7 +2879,7 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -2924,10 +2921,10 @@
         <v>36.4</v>
       </c>
       <c r="O15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q15">
         <v>42.2</v>
@@ -2941,7 +2938,7 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A16" s="4" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="B16" s="2">
         <v>0</v>
@@ -3000,7 +2997,7 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -3042,10 +3039,10 @@
         <v>34</v>
       </c>
       <c r="O17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q17">
         <v>46.5</v>
@@ -3059,7 +3056,7 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
@@ -3101,10 +3098,10 @@
         <v>31</v>
       </c>
       <c r="O18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q18">
         <v>45.5</v>
@@ -3118,7 +3115,7 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
@@ -3160,10 +3157,10 @@
         <v>37.299999999999997</v>
       </c>
       <c r="O19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q19">
         <v>46.3</v>
@@ -3177,7 +3174,7 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B20" s="1">
         <v>0</v>
@@ -3219,10 +3216,10 @@
         <v>33.6</v>
       </c>
       <c r="O20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q20">
         <v>46</v>
@@ -3236,7 +3233,7 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B21" s="1">
         <v>0</v>
@@ -3278,10 +3275,10 @@
         <v>23.5</v>
       </c>
       <c r="O21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P21" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q21">
         <v>39.200000000000003</v>
@@ -3295,7 +3292,7 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B22" s="1">
         <v>0</v>
@@ -3337,10 +3334,10 @@
         <v>34.799999999999997</v>
       </c>
       <c r="O22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q22">
         <v>45.8</v>
@@ -3354,7 +3351,7 @@
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
-        <v>32</v>
+        <v>337</v>
       </c>
       <c r="B23" s="2">
         <v>0</v>
@@ -3413,7 +3410,7 @@
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B24" s="1">
         <v>0</v>
@@ -3455,10 +3452,10 @@
         <v>23.5</v>
       </c>
       <c r="O24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q24">
         <v>44.7</v>
@@ -3472,7 +3469,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B25" s="1">
         <v>0</v>
@@ -3514,10 +3511,10 @@
         <v>29.8</v>
       </c>
       <c r="O25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q25">
         <v>43.2</v>
@@ -3531,7 +3528,7 @@
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="B26" s="1">
         <v>0</v>
@@ -3573,10 +3570,10 @@
         <v>35.4</v>
       </c>
       <c r="O26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P26" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q26">
         <v>44.2</v>
@@ -3590,7 +3587,7 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B27" s="1">
         <v>0</v>
@@ -3632,10 +3629,10 @@
         <v>20</v>
       </c>
       <c r="O27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q27">
         <v>43.8</v>
@@ -3649,7 +3646,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="B28" s="1">
         <v>0</v>
@@ -3691,10 +3688,10 @@
         <v>28</v>
       </c>
       <c r="O28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q28">
         <v>44.8</v>
@@ -3708,7 +3705,7 @@
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B29" s="1">
         <v>0</v>
@@ -3750,10 +3747,10 @@
         <v>26.2</v>
       </c>
       <c r="O29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P29" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q29">
         <v>40.799999999999997</v>
@@ -3767,7 +3764,7 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
       <c r="B30" s="1">
         <v>0</v>
@@ -3809,10 +3806,10 @@
         <v>35.299999999999997</v>
       </c>
       <c r="O30" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P30" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q30">
         <v>45.2</v>
@@ -3826,7 +3823,7 @@
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
@@ -3868,10 +3865,10 @@
         <v>34.4</v>
       </c>
       <c r="O31" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P31" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q31">
         <v>47.4</v>
@@ -3885,7 +3882,7 @@
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A32" s="4" t="s">
-        <v>38</v>
+        <v>336</v>
       </c>
       <c r="B32" s="2">
         <v>0</v>
@@ -3944,7 +3941,7 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B33" s="1">
         <v>0</v>
@@ -3986,10 +3983,10 @@
         <v>28.2</v>
       </c>
       <c r="O33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P33" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q33">
         <v>41.5</v>
@@ -4003,7 +4000,7 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B34" s="1">
         <v>0</v>
@@ -4045,10 +4042,10 @@
         <v>37.6</v>
       </c>
       <c r="O34" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P34" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q34">
         <v>36.1</v>
@@ -4062,7 +4059,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B35" s="1">
         <v>0</v>
@@ -4104,10 +4101,10 @@
         <v>35.5</v>
       </c>
       <c r="O35" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P35" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q35">
         <v>42.9</v>
@@ -4121,7 +4118,7 @@
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B36" s="1">
         <v>0</v>
@@ -4163,10 +4160,10 @@
         <v>32.1</v>
       </c>
       <c r="O36" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P36" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q36">
         <v>45.7</v>
@@ -4180,7 +4177,7 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B37" s="1">
         <v>0</v>
@@ -4222,10 +4219,10 @@
         <v>36.299999999999997</v>
       </c>
       <c r="O37" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P37" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q37">
         <v>41.8</v>
@@ -4239,7 +4236,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="B38" s="1">
         <v>0</v>
@@ -4281,10 +4278,10 @@
         <v>31.5</v>
       </c>
       <c r="O38" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P38" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q38">
         <v>41.7</v>
@@ -4298,7 +4295,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B39" s="1">
         <v>0</v>
@@ -4340,10 +4337,10 @@
         <v>32.200000000000003</v>
       </c>
       <c r="O39" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P39" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q39">
         <v>48</v>
@@ -4357,7 +4354,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B40" s="1">
         <v>0</v>
@@ -4399,10 +4396,10 @@
         <v>48.2</v>
       </c>
       <c r="O40" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P40" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q40">
         <v>34.5</v>
@@ -4416,7 +4413,7 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="B41" s="1">
         <v>0</v>
@@ -4458,10 +4455,10 @@
         <v>35.200000000000003</v>
       </c>
       <c r="O41" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P41" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q41">
         <v>44</v>
@@ -4475,7 +4472,7 @@
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B42" s="1">
         <v>0</v>
@@ -4517,10 +4514,10 @@
         <v>32.799999999999997</v>
       </c>
       <c r="O42" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P42" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q42">
         <v>44.1</v>
@@ -4534,7 +4531,7 @@
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B43" s="1">
         <v>0</v>
@@ -4576,10 +4573,10 @@
         <v>30.9</v>
       </c>
       <c r="O43" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P43" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q43">
         <v>41</v>
@@ -4593,7 +4590,7 @@
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="B44" s="1">
         <v>0</v>
@@ -4635,10 +4632,10 @@
         <v>28.9</v>
       </c>
       <c r="O44" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P44" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q44">
         <v>42.6</v>
@@ -4652,7 +4649,7 @@
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B45" s="1">
         <v>0</v>
@@ -4694,10 +4691,10 @@
         <v>30.6</v>
       </c>
       <c r="O45" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P45" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q45">
         <v>44.9</v>
@@ -4711,7 +4708,7 @@
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B46" s="1">
         <v>0</v>
@@ -4753,10 +4750,10 @@
         <v>31.6</v>
       </c>
       <c r="O46" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P46" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q46">
         <v>39.6</v>
@@ -4770,7 +4767,7 @@
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B47" s="1">
         <v>0</v>
@@ -4812,10 +4809,10 @@
         <v>33.5</v>
       </c>
       <c r="O47" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P47" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q47">
         <v>45.9</v>
@@ -4829,7 +4826,7 @@
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B48" s="1">
         <v>0</v>
@@ -4871,10 +4868,10 @@
         <v>37.200000000000003</v>
       </c>
       <c r="O48" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P48" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q48">
         <v>44.4</v>
@@ -4888,7 +4885,7 @@
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B49" s="1">
         <v>0</v>
@@ -4930,10 +4927,10 @@
         <v>35.299999999999997</v>
       </c>
       <c r="O49" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P49" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q49">
         <v>43.9</v>
@@ -4947,7 +4944,7 @@
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A50" s="4" t="s">
-        <v>281</v>
+        <v>338</v>
       </c>
       <c r="B50" s="2">
         <v>0</v>
@@ -5006,7 +5003,7 @@
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B51" s="1">
         <v>0</v>
@@ -5048,10 +5045,10 @@
         <v>26.5</v>
       </c>
       <c r="O51" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P51" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q51">
         <v>34</v>
@@ -5065,7 +5062,7 @@
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B52" s="1">
         <v>0</v>
@@ -5107,10 +5104,10 @@
         <v>26.6</v>
       </c>
       <c r="O52" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P52" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q52">
         <v>38.4</v>
@@ -5124,7 +5121,7 @@
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A53" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B53" s="1">
         <v>0</v>
@@ -5166,10 +5163,10 @@
         <v>21.7</v>
       </c>
       <c r="O53" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P53" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q53">
         <v>31.8</v>
@@ -5183,7 +5180,7 @@
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A54" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B54" s="1">
         <v>0</v>
@@ -5225,10 +5222,10 @@
         <v>30.9</v>
       </c>
       <c r="O54" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P54" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q54">
         <v>37.5</v>
@@ -5242,7 +5239,7 @@
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A55" s="5" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="B55" s="1">
         <v>0</v>
@@ -5284,10 +5281,10 @@
         <v>28.1</v>
       </c>
       <c r="O55" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P55" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q55">
         <v>31.8</v>
@@ -5301,7 +5298,7 @@
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A56" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B56" s="1">
         <v>0</v>
@@ -5343,10 +5340,10 @@
         <v>21.2</v>
       </c>
       <c r="O56" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P56" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q56">
         <v>36.700000000000003</v>
@@ -5360,7 +5357,7 @@
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A57" s="4" t="s">
-        <v>283</v>
+        <v>339</v>
       </c>
       <c r="B57" s="2">
         <v>0</v>
@@ -5419,7 +5416,7 @@
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A58" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B58" s="1">
         <v>0</v>
@@ -5461,10 +5458,10 @@
         <v>27.5</v>
       </c>
       <c r="O58" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P58" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q58">
         <v>43.6</v>
@@ -5478,7 +5475,7 @@
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A59" s="5" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="B59" s="1">
         <v>0</v>
@@ -5520,10 +5517,10 @@
         <v>30.1</v>
       </c>
       <c r="O59" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P59" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q59">
         <v>42.2</v>
@@ -5537,7 +5534,7 @@
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A60" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B60" s="1">
         <v>0</v>
@@ -5579,10 +5576,10 @@
         <v>27.7</v>
       </c>
       <c r="O60" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P60" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q60">
         <v>42.9</v>
@@ -5596,7 +5593,7 @@
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A61" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B61" s="1">
         <v>0</v>
@@ -5638,10 +5635,10 @@
         <v>26.8</v>
       </c>
       <c r="O61" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P61" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q61">
         <v>44.3</v>
@@ -5655,7 +5652,7 @@
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A62" s="5" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="B62" s="1">
         <v>0</v>
@@ -5697,10 +5694,10 @@
         <v>36.200000000000003</v>
       </c>
       <c r="O62" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P62" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q62">
         <v>40.299999999999997</v>
@@ -5714,7 +5711,7 @@
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A63" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B63" s="1">
         <v>0</v>
@@ -5756,10 +5753,10 @@
         <v>31.7</v>
       </c>
       <c r="O63" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P63" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q63">
         <v>46.9</v>
@@ -5773,7 +5770,7 @@
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A64" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B64" s="1">
         <v>0</v>
@@ -5815,10 +5812,10 @@
         <v>32.9</v>
       </c>
       <c r="O64" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P64" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q64">
         <v>49</v>
@@ -5832,7 +5829,7 @@
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A65" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B65" s="1">
         <v>0</v>
@@ -5874,10 +5871,10 @@
         <v>27.1</v>
       </c>
       <c r="O65" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P65" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q65">
         <v>47.4</v>
@@ -5891,7 +5888,7 @@
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A66" s="5" t="s">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="B66" s="1">
         <v>0</v>
@@ -5933,10 +5930,10 @@
         <v>33.6</v>
       </c>
       <c r="O66" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P66" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q66">
         <v>47.5</v>
@@ -5950,7 +5947,7 @@
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A67" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B67" s="1">
         <v>0</v>
@@ -5992,10 +5989,10 @@
         <v>32.1</v>
       </c>
       <c r="O67" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P67" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q67">
         <v>46.7</v>
@@ -6009,7 +6006,7 @@
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A68" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B68" s="1">
         <v>0</v>
@@ -6051,10 +6048,10 @@
         <v>23.4</v>
       </c>
       <c r="O68" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P68" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q68">
         <v>41.7</v>
@@ -6068,7 +6065,7 @@
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A69" s="4" t="s">
-        <v>66</v>
+        <v>340</v>
       </c>
       <c r="B69" s="2">
         <v>0</v>
@@ -6127,7 +6124,7 @@
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A70" s="5" t="s">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="B70" s="1">
         <v>0</v>
@@ -6169,10 +6166,10 @@
         <v>29.2</v>
       </c>
       <c r="O70" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P70" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q70">
         <v>34.299999999999997</v>
@@ -6186,7 +6183,7 @@
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A71" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B71" s="1">
         <v>0</v>
@@ -6228,10 +6225,10 @@
         <v>21.9</v>
       </c>
       <c r="O71" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P71" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q71">
         <v>38.200000000000003</v>
@@ -6245,7 +6242,7 @@
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A72" s="5" t="s">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="B72" s="1">
         <v>0</v>
@@ -6287,10 +6284,10 @@
         <v>35.299999999999997</v>
       </c>
       <c r="O72" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P72" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q72">
         <v>31.7</v>
@@ -6304,7 +6301,7 @@
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A73" s="5" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="B73" s="1">
         <v>0</v>
@@ -6346,10 +6343,10 @@
         <v>32.799999999999997</v>
       </c>
       <c r="O73" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P73" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q73">
         <v>39.200000000000003</v>
@@ -6363,7 +6360,7 @@
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A74" s="5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B74" s="1">
         <v>0</v>
@@ -6405,10 +6402,10 @@
         <v>28</v>
       </c>
       <c r="O74" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P74" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q74">
         <v>40.5</v>
@@ -6422,7 +6419,7 @@
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A75" s="5" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="B75" s="1">
         <v>0</v>
@@ -6464,10 +6461,10 @@
         <v>19</v>
       </c>
       <c r="O75" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P75" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q75">
         <v>41.7</v>
@@ -6481,7 +6478,7 @@
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A76" s="5" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B76" s="1">
         <v>0</v>
@@ -6523,10 +6520,10 @@
         <v>25.8</v>
       </c>
       <c r="O76" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P76" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q76">
         <v>40.4</v>
@@ -6540,7 +6537,7 @@
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A77" s="5" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B77" s="1">
         <v>0</v>
@@ -6582,10 +6579,10 @@
         <v>18.2</v>
       </c>
       <c r="O77" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P77" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q77">
         <v>36.299999999999997</v>
@@ -6599,7 +6596,7 @@
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A78" s="5" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B78" s="1">
         <v>0</v>
@@ -6641,10 +6638,10 @@
         <v>23.5</v>
       </c>
       <c r="O78" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P78" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q78">
         <v>37.299999999999997</v>
@@ -6658,7 +6655,7 @@
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A79" s="5" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="B79" s="1">
         <v>0</v>
@@ -6700,10 +6697,10 @@
         <v>31.8</v>
       </c>
       <c r="O79" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P79" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q79">
         <v>40.4</v>
@@ -6717,7 +6714,7 @@
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A80" s="5" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B80" s="1">
         <v>0</v>
@@ -6759,10 +6756,10 @@
         <v>28.6</v>
       </c>
       <c r="O80" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P80" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q80">
         <v>38.6</v>
@@ -6776,7 +6773,7 @@
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A81" s="5" t="s">
-        <v>293</v>
+        <v>268</v>
       </c>
       <c r="B81" s="1">
         <v>0</v>
@@ -6818,10 +6815,10 @@
         <v>18.100000000000001</v>
       </c>
       <c r="O81" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P81" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q81">
         <v>37.4</v>
@@ -6835,7 +6832,7 @@
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A82" s="5" t="s">
-        <v>294</v>
+        <v>269</v>
       </c>
       <c r="B82" s="1">
         <v>0</v>
@@ -6877,10 +6874,10 @@
         <v>23.7</v>
       </c>
       <c r="O82" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P82" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q82">
         <v>41.4</v>
@@ -6894,7 +6891,7 @@
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A83" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B83" s="1">
         <v>0</v>
@@ -6936,10 +6933,10 @@
         <v>17.899999999999999</v>
       </c>
       <c r="O83" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P83" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q83">
         <v>40</v>
@@ -6953,7 +6950,7 @@
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A84" s="5" t="s">
-        <v>295</v>
+        <v>270</v>
       </c>
       <c r="B84" s="1">
         <v>0</v>
@@ -6995,10 +6992,10 @@
         <v>19.7</v>
       </c>
       <c r="O84" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P84" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q84">
         <v>43</v>
@@ -7012,7 +7009,7 @@
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A85" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B85" s="1">
         <v>0</v>
@@ -7054,10 +7051,10 @@
         <v>25.5</v>
       </c>
       <c r="O85" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P85" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q85">
         <v>45.5</v>
@@ -7071,7 +7068,7 @@
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A86" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B86" s="1">
         <v>0</v>
@@ -7113,10 +7110,10 @@
         <v>31.9</v>
       </c>
       <c r="O86" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P86" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q86">
         <v>33.1</v>
@@ -7130,7 +7127,7 @@
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A87" s="5" t="s">
-        <v>296</v>
+        <v>271</v>
       </c>
       <c r="B87" s="1">
         <v>0</v>
@@ -7172,10 +7169,10 @@
         <v>29.9</v>
       </c>
       <c r="O87" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P87" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q87">
         <v>35.9</v>
@@ -7189,7 +7186,7 @@
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A88" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B88" s="1">
         <v>0</v>
@@ -7231,10 +7228,10 @@
         <v>28.2</v>
       </c>
       <c r="O88" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P88" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q88">
         <v>43</v>
@@ -7248,7 +7245,7 @@
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A89" s="4" t="s">
-        <v>297</v>
+        <v>341</v>
       </c>
       <c r="B89" s="2">
         <v>0</v>
@@ -7307,7 +7304,7 @@
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A90" s="5" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="B90" s="1">
         <v>0</v>
@@ -7349,10 +7346,10 @@
         <v>33.1</v>
       </c>
       <c r="O90" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P90" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q90">
         <v>34.4</v>
@@ -7366,7 +7363,7 @@
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A91" s="5" t="s">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="B91" s="1">
         <v>0</v>
@@ -7408,10 +7405,10 @@
         <v>35.4</v>
       </c>
       <c r="O91" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P91" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q91">
         <v>40</v>
@@ -7425,7 +7422,7 @@
     </row>
     <row r="92" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A92" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B92" s="1">
         <v>0</v>
@@ -7467,10 +7464,10 @@
         <v>26</v>
       </c>
       <c r="O92" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P92" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q92">
         <v>36.200000000000003</v>
@@ -7484,7 +7481,7 @@
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A93" s="5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B93" s="1">
         <v>0</v>
@@ -7526,10 +7523,10 @@
         <v>16.600000000000001</v>
       </c>
       <c r="O93" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P93" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q93">
         <v>35.700000000000003</v>
@@ -7543,7 +7540,7 @@
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A94" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B94" s="1">
         <v>0</v>
@@ -7585,10 +7582,10 @@
         <v>34.1</v>
       </c>
       <c r="O94" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P94" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q94">
         <v>37.700000000000003</v>
@@ -7602,7 +7599,7 @@
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A95" s="5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B95" s="1">
         <v>0</v>
@@ -7644,10 +7641,10 @@
         <v>19.399999999999999</v>
       </c>
       <c r="O95" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P95" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q95">
         <v>30.5</v>
@@ -7661,7 +7658,7 @@
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A96" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B96" s="1">
         <v>0</v>
@@ -7703,10 +7700,10 @@
         <v>32.6</v>
       </c>
       <c r="O96" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P96" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q96">
         <v>37.299999999999997</v>
@@ -7720,7 +7717,7 @@
     </row>
     <row r="97" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A97" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B97" s="1">
         <v>0</v>
@@ -7762,10 +7759,10 @@
         <v>39.200000000000003</v>
       </c>
       <c r="O97" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P97" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q97">
         <v>34.5</v>
@@ -7779,7 +7776,7 @@
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A98" s="5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B98" s="1">
         <v>0</v>
@@ -7821,10 +7818,10 @@
         <v>23.6</v>
       </c>
       <c r="O98" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P98" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q98">
         <v>28.6</v>
@@ -7838,7 +7835,7 @@
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A99" s="6" t="s">
-        <v>83</v>
+        <v>342</v>
       </c>
       <c r="B99" s="2">
         <v>0</v>
@@ -7897,7 +7894,7 @@
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A100" s="4" t="s">
-        <v>84</v>
+        <v>343</v>
       </c>
       <c r="B100" s="2">
         <v>0</v>
@@ -7956,7 +7953,7 @@
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A101" s="5" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="B101" s="1">
         <v>0</v>
@@ -7998,10 +7995,10 @@
         <v>33.5</v>
       </c>
       <c r="O101" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P101" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q101">
         <v>41.1</v>
@@ -8015,7 +8012,7 @@
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A102" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B102" s="1">
         <v>0</v>
@@ -8057,10 +8054,10 @@
         <v>40.700000000000003</v>
       </c>
       <c r="O102" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P102" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q102">
         <v>44.7</v>
@@ -8074,7 +8071,7 @@
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A103" s="5" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B103" s="1">
         <v>0</v>
@@ -8116,10 +8113,10 @@
         <v>35.799999999999997</v>
       </c>
       <c r="O103" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P103" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q103">
         <v>46.7</v>
@@ -8133,7 +8130,7 @@
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A104" s="5" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B104" s="1">
         <v>0</v>
@@ -8175,10 +8172,10 @@
         <v>28.7</v>
       </c>
       <c r="O104" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P104" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q104">
         <v>41.4</v>
@@ -8192,7 +8189,7 @@
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A105" s="5" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B105" s="1">
         <v>0</v>
@@ -8234,10 +8231,10 @@
         <v>27.1</v>
       </c>
       <c r="O105" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P105" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q105">
         <v>40.799999999999997</v>
@@ -8251,7 +8248,7 @@
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A106" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B106" s="1">
         <v>0</v>
@@ -8293,10 +8290,10 @@
         <v>31.4</v>
       </c>
       <c r="O106" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P106" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q106">
         <v>42.5</v>
@@ -8310,7 +8307,7 @@
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A107" s="5" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="B107" s="1">
         <v>0</v>
@@ -8352,10 +8349,10 @@
         <v>36.799999999999997</v>
       </c>
       <c r="O107" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P107" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q107">
         <v>45.4</v>
@@ -8369,7 +8366,7 @@
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A108" s="5" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="B108" s="1">
         <v>0</v>
@@ -8411,10 +8408,10 @@
         <v>39.6</v>
       </c>
       <c r="O108" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P108" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q108">
         <v>39</v>
@@ -8428,7 +8425,7 @@
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A109" s="5" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="B109" s="1">
         <v>0</v>
@@ -8470,10 +8467,10 @@
         <v>38.299999999999997</v>
       </c>
       <c r="O109" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P109" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q109">
         <v>42.1</v>
@@ -8487,7 +8484,7 @@
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A110" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B110" s="1">
         <v>0</v>
@@ -8529,10 +8526,10 @@
         <v>42.8</v>
       </c>
       <c r="O110" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P110" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q110">
         <v>40.5</v>
@@ -8546,7 +8543,7 @@
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A111" s="5" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="B111" s="1">
         <v>0</v>
@@ -8588,10 +8585,10 @@
         <v>32.1</v>
       </c>
       <c r="O111" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P111" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q111">
         <v>47.3</v>
@@ -8605,7 +8602,7 @@
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A112" s="5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B112" s="1">
         <v>0</v>
@@ -8647,10 +8644,10 @@
         <v>37.9</v>
       </c>
       <c r="O112" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P112" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q112">
         <v>43.9</v>
@@ -8664,7 +8661,7 @@
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A113" s="4" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="B113" s="2">
         <v>0</v>
@@ -8723,7 +8720,7 @@
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A114" s="5" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="B114" s="1">
         <v>0</v>
@@ -8765,10 +8762,10 @@
         <v>37</v>
       </c>
       <c r="O114" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P114" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q114">
         <v>40.299999999999997</v>
@@ -8782,7 +8779,7 @@
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A115" s="5" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B115" s="1">
         <v>0</v>
@@ -8824,10 +8821,10 @@
         <v>34.4</v>
       </c>
       <c r="O115" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P115" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q115">
         <v>42.5</v>
@@ -8841,7 +8838,7 @@
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A116" s="5" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B116" s="1">
         <v>0</v>
@@ -8883,10 +8880,10 @@
         <v>34.9</v>
       </c>
       <c r="O116" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P116" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q116">
         <v>37.299999999999997</v>
@@ -8900,7 +8897,7 @@
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A117" s="5" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B117" s="1">
         <v>0</v>
@@ -8942,10 +8939,10 @@
         <v>38.200000000000003</v>
       </c>
       <c r="O117" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P117" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q117">
         <v>43.6</v>
@@ -8959,7 +8956,7 @@
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A118" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B118" s="1">
         <v>0</v>
@@ -9001,10 +8998,10 @@
         <v>34.700000000000003</v>
       </c>
       <c r="O118" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P118" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q118">
         <v>41.5</v>
@@ -9018,7 +9015,7 @@
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A119" s="5" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="B119" s="1">
         <v>0</v>
@@ -9060,10 +9057,10 @@
         <v>40.299999999999997</v>
       </c>
       <c r="O119" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P119" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q119">
         <v>43.1</v>
@@ -9077,7 +9074,7 @@
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A120" s="5" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B120" s="1">
         <v>0</v>
@@ -9119,10 +9116,10 @@
         <v>36</v>
       </c>
       <c r="O120" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P120" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q120">
         <v>44</v>
@@ -9136,7 +9133,7 @@
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A121" s="5" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B121" s="1">
         <v>0</v>
@@ -9178,10 +9175,10 @@
         <v>36.6</v>
       </c>
       <c r="O121" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P121" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q121">
         <v>45.7</v>
@@ -9195,7 +9192,7 @@
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A122" s="5" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B122" s="1">
         <v>0</v>
@@ -9237,10 +9234,10 @@
         <v>35.1</v>
       </c>
       <c r="O122" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P122" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q122">
         <v>42.9</v>
@@ -9254,7 +9251,7 @@
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A123" s="5" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B123" s="1">
         <v>0</v>
@@ -9296,10 +9293,10 @@
         <v>30.9</v>
       </c>
       <c r="O123" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P123" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q123">
         <v>38.200000000000003</v>
@@ -9313,7 +9310,7 @@
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A124" s="5" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B124" s="1">
         <v>0</v>
@@ -9355,10 +9352,10 @@
         <v>38.299999999999997</v>
       </c>
       <c r="O124" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P124" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q124">
         <v>43.5</v>
@@ -9372,7 +9369,7 @@
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A125" s="4" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="B125" s="2">
         <v>0</v>
@@ -9431,7 +9428,7 @@
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A126" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B126" s="1">
         <v>0</v>
@@ -9473,10 +9470,10 @@
         <v>28.8</v>
       </c>
       <c r="O126" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P126" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q126">
         <v>36.9</v>
@@ -9490,7 +9487,7 @@
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A127" s="5" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B127" s="1">
         <v>0</v>
@@ -9532,10 +9529,10 @@
         <v>32.9</v>
       </c>
       <c r="O127" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P127" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q127">
         <v>38.799999999999997</v>
@@ -9549,7 +9546,7 @@
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A128" s="5" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B128" s="1">
         <v>0</v>
@@ -9591,10 +9588,10 @@
         <v>42.9</v>
       </c>
       <c r="O128" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P128" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q128">
         <v>37.1</v>
@@ -9608,7 +9605,7 @@
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A129" s="5" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B129" s="1">
         <v>0</v>
@@ -9650,10 +9647,10 @@
         <v>28.5</v>
       </c>
       <c r="O129" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P129" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q129">
         <v>45</v>
@@ -9667,7 +9664,7 @@
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A130" s="5" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B130" s="1">
         <v>0</v>
@@ -9709,10 +9706,10 @@
         <v>32.6</v>
       </c>
       <c r="O130" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P130" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q130">
         <v>39</v>
@@ -9726,7 +9723,7 @@
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A131" s="5" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="B131" s="1">
         <v>0</v>
@@ -9768,10 +9765,10 @@
         <v>22.5</v>
       </c>
       <c r="O131" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P131" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q131">
         <v>36.9</v>
@@ -9785,7 +9782,7 @@
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A132" s="5" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="B132" s="1">
         <v>0</v>
@@ -9827,10 +9824,10 @@
         <v>25.8</v>
       </c>
       <c r="O132" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P132" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q132">
         <v>45.3</v>
@@ -9844,7 +9841,7 @@
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A133" s="5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B133" s="1">
         <v>0</v>
@@ -9886,10 +9883,10 @@
         <v>33</v>
       </c>
       <c r="O133" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P133" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q133">
         <v>41.3</v>
@@ -9903,7 +9900,7 @@
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A134" s="5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B134" s="1">
         <v>0</v>
@@ -9945,10 +9942,10 @@
         <v>41</v>
       </c>
       <c r="O134" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P134" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q134">
         <v>38.5</v>
@@ -9962,7 +9959,7 @@
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A135" s="5" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B135" s="1">
         <v>0</v>
@@ -10004,10 +10001,10 @@
         <v>24.6</v>
       </c>
       <c r="O135" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P135" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q135">
         <v>42</v>
@@ -10021,7 +10018,7 @@
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A136" s="5" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B136" s="1">
         <v>0</v>
@@ -10063,10 +10060,10 @@
         <v>32.700000000000003</v>
       </c>
       <c r="O136" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P136" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q136">
         <v>40.6</v>
@@ -10080,7 +10077,7 @@
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A137" s="5" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="B137" s="1">
         <v>0</v>
@@ -10122,10 +10119,10 @@
         <v>36.1</v>
       </c>
       <c r="O137" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P137" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q137">
         <v>35.1</v>
@@ -10139,7 +10136,7 @@
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A138" s="5" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B138" s="1">
         <v>0</v>
@@ -10181,10 +10178,10 @@
         <v>35.5</v>
       </c>
       <c r="O138" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P138" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q138">
         <v>38.1</v>
@@ -10198,7 +10195,7 @@
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A139" s="5" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B139" s="1">
         <v>0</v>
@@ -10240,10 +10237,10 @@
         <v>12.8</v>
       </c>
       <c r="O139" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P139" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q139">
         <v>32.799999999999997</v>
@@ -10257,7 +10254,7 @@
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A140" s="5" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B140" s="1">
         <v>0</v>
@@ -10299,10 +10296,10 @@
         <v>20.6</v>
       </c>
       <c r="O140" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P140" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q140">
         <v>37</v>
@@ -10316,7 +10313,7 @@
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A141" s="5" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B141" s="1">
         <v>0</v>
@@ -10358,10 +10355,10 @@
         <v>19.8</v>
       </c>
       <c r="O141" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P141" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q141">
         <v>36.9</v>
@@ -10375,7 +10372,7 @@
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A142" s="5" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B142" s="1">
         <v>0</v>
@@ -10417,10 +10414,10 @@
         <v>27.3</v>
       </c>
       <c r="O142" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P142" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q142">
         <v>35.700000000000003</v>
@@ -10434,7 +10431,7 @@
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A143" s="5" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="B143" s="1">
         <v>0</v>
@@ -10476,10 +10473,10 @@
         <v>28.9</v>
       </c>
       <c r="O143" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P143" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q143">
         <v>42.1</v>
@@ -10493,7 +10490,7 @@
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A144" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B144" s="1">
         <v>0</v>
@@ -10535,10 +10532,10 @@
         <v>23.3</v>
       </c>
       <c r="O144" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P144" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q144">
         <v>46.7</v>
@@ -10552,7 +10549,7 @@
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A145" s="4" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="B145" s="2">
         <v>0</v>
@@ -10611,7 +10608,7 @@
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A146" s="5" t="s">
-        <v>314</v>
+        <v>285</v>
       </c>
       <c r="B146" s="1">
         <v>0</v>
@@ -10653,10 +10650,10 @@
         <v>27.5</v>
       </c>
       <c r="O146" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P146" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q146">
         <v>35</v>
@@ -10670,7 +10667,7 @@
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A147" s="5" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="B147" s="1">
         <v>0</v>
@@ -10712,10 +10709,10 @@
         <v>27.2</v>
       </c>
       <c r="O147" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P147" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q147">
         <v>38.6</v>
@@ -10729,7 +10726,7 @@
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A148" s="5" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B148" s="1">
         <v>0</v>
@@ -10771,10 +10768,10 @@
         <v>33.5</v>
       </c>
       <c r="O148" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P148" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q148">
         <v>43.8</v>
@@ -10788,7 +10785,7 @@
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A149" s="5" t="s">
-        <v>316</v>
+        <v>287</v>
       </c>
       <c r="B149" s="1">
         <v>0</v>
@@ -10830,10 +10827,10 @@
         <v>9.5</v>
       </c>
       <c r="O149" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P149" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q149">
         <v>29.6</v>
@@ -10847,7 +10844,7 @@
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A150" s="5" t="s">
-        <v>317</v>
+        <v>288</v>
       </c>
       <c r="B150" s="1">
         <v>0</v>
@@ -10889,10 +10886,10 @@
         <v>34.1</v>
       </c>
       <c r="O150" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P150" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q150">
         <v>33.200000000000003</v>
@@ -10906,7 +10903,7 @@
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A151" s="5" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B151" s="1">
         <v>0</v>
@@ -10948,10 +10945,10 @@
         <v>37.6</v>
       </c>
       <c r="O151" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P151" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q151">
         <v>43.1</v>
@@ -10965,7 +10962,7 @@
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A152" s="5" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B152" s="1">
         <v>0</v>
@@ -11007,10 +11004,10 @@
         <v>33.9</v>
       </c>
       <c r="O152" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P152" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q152">
         <v>42.1</v>
@@ -11024,7 +11021,7 @@
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A153" s="5" t="s">
-        <v>318</v>
+        <v>289</v>
       </c>
       <c r="B153" s="1">
         <v>0</v>
@@ -11066,10 +11063,10 @@
         <v>22.7</v>
       </c>
       <c r="O153" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P153" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q153">
         <v>36.9</v>
@@ -11083,7 +11080,7 @@
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A154" s="5" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B154" s="1">
         <v>0</v>
@@ -11125,10 +11122,10 @@
         <v>32.6</v>
       </c>
       <c r="O154" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P154" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q154">
         <v>40</v>
@@ -11142,7 +11139,7 @@
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A155" s="5" t="s">
-        <v>319</v>
+        <v>290</v>
       </c>
       <c r="B155" s="1">
         <v>0</v>
@@ -11184,10 +11181,10 @@
         <v>38.299999999999997</v>
       </c>
       <c r="O155" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P155" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q155">
         <v>40.9</v>
@@ -11201,7 +11198,7 @@
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A156" s="4" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="B156" s="2">
         <v>0</v>
@@ -11260,7 +11257,7 @@
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A157" s="5" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B157" s="1">
         <v>0</v>
@@ -11302,10 +11299,10 @@
         <v>22.9</v>
       </c>
       <c r="O157" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P157" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q157">
         <v>40</v>
@@ -11319,7 +11316,7 @@
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A158" s="5" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B158" s="1">
         <v>0</v>
@@ -11361,10 +11358,10 @@
         <v>30.8</v>
       </c>
       <c r="O158" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P158" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q158">
         <v>39</v>
@@ -11378,7 +11375,7 @@
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A159" s="5" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B159" s="1">
         <v>0</v>
@@ -11420,10 +11417,10 @@
         <v>30.1</v>
       </c>
       <c r="O159" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P159" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q159">
         <v>36.299999999999997</v>
@@ -11437,7 +11434,7 @@
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A160" s="5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B160" s="1">
         <v>0</v>
@@ -11479,10 +11476,10 @@
         <v>30.9</v>
       </c>
       <c r="O160" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P160" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q160">
         <v>38.700000000000003</v>
@@ -11496,7 +11493,7 @@
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A161" s="5" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B161" s="1">
         <v>0</v>
@@ -11538,10 +11535,10 @@
         <v>36.1</v>
       </c>
       <c r="O161" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P161" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q161">
         <v>37.4</v>
@@ -11555,7 +11552,7 @@
     </row>
     <row r="162" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A162" s="5" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B162" s="1">
         <v>0</v>
@@ -11597,10 +11594,10 @@
         <v>34.9</v>
       </c>
       <c r="O162" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P162" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q162">
         <v>42.8</v>
@@ -11614,7 +11611,7 @@
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A163" s="5" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B163" s="1">
         <v>0</v>
@@ -11656,10 +11653,10 @@
         <v>19.7</v>
       </c>
       <c r="O163" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P163" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q163">
         <v>37.9</v>
@@ -11673,7 +11670,7 @@
     </row>
     <row r="164" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A164" s="5" t="s">
-        <v>321</v>
+        <v>291</v>
       </c>
       <c r="B164" s="1">
         <v>0</v>
@@ -11715,10 +11712,10 @@
         <v>29.9</v>
       </c>
       <c r="O164" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P164" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q164">
         <v>38.4</v>
@@ -11732,7 +11729,7 @@
     </row>
     <row r="165" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A165" s="5" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="B165" s="1">
         <v>0</v>
@@ -11774,10 +11771,10 @@
         <v>30.5</v>
       </c>
       <c r="O165" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P165" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q165">
         <v>36.299999999999997</v>
@@ -11791,7 +11788,7 @@
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A166" s="5" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="B166" s="1">
         <v>0</v>
@@ -11833,10 +11830,10 @@
         <v>29.6</v>
       </c>
       <c r="O166" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P166" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q166">
         <v>40.200000000000003</v>
@@ -11850,7 +11847,7 @@
     </row>
     <row r="167" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A167" s="5" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B167" s="1">
         <v>0</v>
@@ -11892,10 +11889,10 @@
         <v>25.9</v>
       </c>
       <c r="O167" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P167" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q167">
         <v>36.5</v>
@@ -11909,7 +11906,7 @@
     </row>
     <row r="168" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A168" s="5" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B168" s="1">
         <v>0</v>
@@ -11951,10 +11948,10 @@
         <v>22.4</v>
       </c>
       <c r="O168" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P168" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q168">
         <v>39.799999999999997</v>
@@ -11968,7 +11965,7 @@
     </row>
     <row r="169" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A169" s="5" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B169" s="1">
         <v>0</v>
@@ -12010,10 +12007,10 @@
         <v>34.4</v>
       </c>
       <c r="O169" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P169" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q169">
         <v>43.5</v>
@@ -12027,7 +12024,7 @@
     </row>
     <row r="170" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A170" s="5" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B170" s="1">
         <v>0</v>
@@ -12069,10 +12066,10 @@
         <v>33.700000000000003</v>
       </c>
       <c r="O170" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P170" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q170">
         <v>37.700000000000003</v>
@@ -12086,7 +12083,7 @@
     </row>
     <row r="171" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A171" s="4" t="s">
-        <v>131</v>
+        <v>348</v>
       </c>
       <c r="B171" s="2">
         <v>0</v>
@@ -12145,7 +12142,7 @@
     </row>
     <row r="172" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A172" s="5" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B172" s="1">
         <v>0</v>
@@ -12187,10 +12184,10 @@
         <v>30.6</v>
       </c>
       <c r="O172" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P172" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q172">
         <v>38.4</v>
@@ -12204,7 +12201,7 @@
     </row>
     <row r="173" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A173" s="5" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B173" s="1">
         <v>0</v>
@@ -12246,10 +12243,10 @@
         <v>36.5</v>
       </c>
       <c r="O173" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P173" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q173">
         <v>29.9</v>
@@ -12263,7 +12260,7 @@
     </row>
     <row r="174" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A174" s="5" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B174" s="1">
         <v>0</v>
@@ -12305,10 +12302,10 @@
         <v>15.9</v>
       </c>
       <c r="O174" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P174" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q174">
         <v>30.8</v>
@@ -12322,7 +12319,7 @@
     </row>
     <row r="175" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A175" s="5" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B175" s="1">
         <v>0</v>
@@ -12364,10 +12361,10 @@
         <v>17.2</v>
       </c>
       <c r="O175" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P175" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q175">
         <v>31</v>
@@ -12381,7 +12378,7 @@
     </row>
     <row r="176" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A176" s="5" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="B176" s="1">
         <v>0</v>
@@ -12423,10 +12420,10 @@
         <v>12.7</v>
       </c>
       <c r="O176" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P176" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q176">
         <v>34.9</v>
@@ -12440,7 +12437,7 @@
     </row>
     <row r="177" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A177" s="5" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="B177" s="1">
         <v>0</v>
@@ -12482,10 +12479,10 @@
         <v>19.2</v>
       </c>
       <c r="O177" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P177" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q177">
         <v>33.9</v>
@@ -12499,7 +12496,7 @@
     </row>
     <row r="178" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A178" s="4" t="s">
-        <v>326</v>
+        <v>349</v>
       </c>
       <c r="B178" s="2">
         <v>0</v>
@@ -12558,7 +12555,7 @@
     </row>
     <row r="179" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A179" s="5" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B179" s="1">
         <v>0</v>
@@ -12600,10 +12597,10 @@
         <v>31.1</v>
       </c>
       <c r="O179" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P179" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q179">
         <v>34.9</v>
@@ -12617,7 +12614,7 @@
     </row>
     <row r="180" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A180" s="5" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B180" s="1">
         <v>0</v>
@@ -12659,10 +12656,10 @@
         <v>31</v>
       </c>
       <c r="O180" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P180" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q180">
         <v>38.4</v>
@@ -12676,7 +12673,7 @@
     </row>
     <row r="181" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A181" s="5" t="s">
-        <v>327</v>
+        <v>296</v>
       </c>
       <c r="B181" s="1">
         <v>0</v>
@@ -12718,10 +12715,10 @@
         <v>29.5</v>
       </c>
       <c r="O181" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P181" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q181">
         <v>45.6</v>
@@ -12735,7 +12732,7 @@
     </row>
     <row r="182" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A182" s="5" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B182" s="1">
         <v>0</v>
@@ -12777,10 +12774,10 @@
         <v>37.200000000000003</v>
       </c>
       <c r="O182" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P182" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q182">
         <v>44</v>
@@ -12794,7 +12791,7 @@
     </row>
     <row r="183" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A183" s="5" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="B183" s="1">
         <v>0</v>
@@ -12836,10 +12833,10 @@
         <v>23.7</v>
       </c>
       <c r="O183" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P183" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q183">
         <v>39.200000000000003</v>
@@ -12853,7 +12850,7 @@
     </row>
     <row r="184" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A184" s="5" t="s">
-        <v>329</v>
+        <v>298</v>
       </c>
       <c r="B184" s="1">
         <v>0</v>
@@ -12895,10 +12892,10 @@
         <v>23</v>
       </c>
       <c r="O184" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P184" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q184">
         <v>32.9</v>
@@ -12912,7 +12909,7 @@
     </row>
     <row r="185" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A185" s="5" t="s">
-        <v>330</v>
+        <v>299</v>
       </c>
       <c r="B185" s="1">
         <v>0</v>
@@ -12954,10 +12951,10 @@
         <v>34.299999999999997</v>
       </c>
       <c r="O185" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P185" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q185">
         <v>41.6</v>
@@ -12971,7 +12968,7 @@
     </row>
     <row r="186" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A186" s="5" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B186" s="1">
         <v>0</v>
@@ -13013,10 +13010,10 @@
         <v>29.2</v>
       </c>
       <c r="O186" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P186" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q186">
         <v>40.9</v>
@@ -13030,7 +13027,7 @@
     </row>
     <row r="187" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A187" s="5" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
       <c r="B187" s="1">
         <v>0</v>
@@ -13072,10 +13069,10 @@
         <v>25.6</v>
       </c>
       <c r="O187" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P187" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q187">
         <v>37.4</v>
@@ -13089,7 +13086,7 @@
     </row>
     <row r="188" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A188" s="5" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B188" s="1">
         <v>0</v>
@@ -13131,10 +13128,10 @@
         <v>28.9</v>
       </c>
       <c r="O188" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P188" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q188">
         <v>36.9</v>
@@ -13148,7 +13145,7 @@
     </row>
     <row r="189" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A189" s="5" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B189" s="1">
         <v>0</v>
@@ -13190,10 +13187,10 @@
         <v>31.1</v>
       </c>
       <c r="O189" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P189" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q189">
         <v>39.4</v>
@@ -13207,7 +13204,7 @@
     </row>
     <row r="190" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A190" s="5" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B190" s="1">
         <v>0</v>
@@ -13249,10 +13246,10 @@
         <v>15</v>
       </c>
       <c r="O190" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P190" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q190">
         <v>40.700000000000003</v>
@@ -13266,7 +13263,7 @@
     </row>
     <row r="191" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A191" s="5" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B191" s="1">
         <v>0</v>
@@ -13308,10 +13305,10 @@
         <v>33</v>
       </c>
       <c r="O191" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P191" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q191">
         <v>39.6</v>
@@ -13325,7 +13322,7 @@
     </row>
     <row r="192" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A192" s="4" t="s">
-        <v>144</v>
+        <v>350</v>
       </c>
       <c r="B192" s="2">
         <v>0</v>
@@ -13384,7 +13381,7 @@
     </row>
     <row r="193" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A193" s="5" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B193" s="1">
         <v>0</v>
@@ -13426,10 +13423,10 @@
         <v>22.3</v>
       </c>
       <c r="O193" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P193" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q193">
         <v>32.6</v>
@@ -13443,7 +13440,7 @@
     </row>
     <row r="194" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A194" s="5" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B194" s="1">
         <v>0</v>
@@ -13485,10 +13482,10 @@
         <v>29.4</v>
       </c>
       <c r="O194" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P194" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q194">
         <v>36.299999999999997</v>
@@ -13502,7 +13499,7 @@
     </row>
     <row r="195" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A195" s="5" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B195" s="1">
         <v>0</v>
@@ -13544,10 +13541,10 @@
         <v>25</v>
       </c>
       <c r="O195" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P195" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q195">
         <v>35.5</v>
@@ -13561,7 +13558,7 @@
     </row>
     <row r="196" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A196" s="5" t="s">
-        <v>332</v>
+        <v>301</v>
       </c>
       <c r="B196" s="1">
         <v>0</v>
@@ -13603,10 +13600,10 @@
         <v>29.1</v>
       </c>
       <c r="O196" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P196" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q196">
         <v>35.799999999999997</v>
@@ -13620,7 +13617,7 @@
     </row>
     <row r="197" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A197" s="5" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B197" s="1">
         <v>0</v>
@@ -13662,10 +13659,10 @@
         <v>22.7</v>
       </c>
       <c r="O197" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P197" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q197">
         <v>34.799999999999997</v>
@@ -13679,7 +13676,7 @@
     </row>
     <row r="198" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A198" s="5" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B198" s="1">
         <v>0</v>
@@ -13721,10 +13718,10 @@
         <v>22.3</v>
       </c>
       <c r="O198" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P198" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q198">
         <v>40.200000000000003</v>
@@ -13738,7 +13735,7 @@
     </row>
     <row r="199" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A199" s="5" t="s">
-        <v>333</v>
+        <v>302</v>
       </c>
       <c r="B199" s="1">
         <v>0</v>
@@ -13780,10 +13777,10 @@
         <v>26.3</v>
       </c>
       <c r="O199" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P199" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q199">
         <v>35.5</v>
@@ -13797,7 +13794,7 @@
     </row>
     <row r="200" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A200" s="5" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B200" s="1">
         <v>0</v>
@@ -13839,10 +13836,10 @@
         <v>31.4</v>
       </c>
       <c r="O200" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P200" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q200">
         <v>32.4</v>
@@ -13856,7 +13853,7 @@
     </row>
     <row r="201" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A201" s="5" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B201" s="1">
         <v>0</v>
@@ -13898,10 +13895,10 @@
         <v>34</v>
       </c>
       <c r="O201" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P201" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q201">
         <v>38.700000000000003</v>
@@ -13915,7 +13912,7 @@
     </row>
     <row r="202" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A202" s="5" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B202" s="1">
         <v>0</v>
@@ -13957,10 +13954,10 @@
         <v>40.700000000000003</v>
       </c>
       <c r="O202" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P202" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q202">
         <v>34.799999999999997</v>
@@ -13974,7 +13971,7 @@
     </row>
     <row r="203" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A203" s="5" t="s">
-        <v>334</v>
+        <v>303</v>
       </c>
       <c r="B203" s="1">
         <v>0</v>
@@ -14016,10 +14013,10 @@
         <v>30.7</v>
       </c>
       <c r="O203" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P203" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q203">
         <v>29.6</v>
@@ -14033,7 +14030,7 @@
     </row>
     <row r="204" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A204" s="5" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B204" s="1">
         <v>0</v>
@@ -14075,10 +14072,10 @@
         <v>18.2</v>
       </c>
       <c r="O204" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P204" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q204">
         <v>33.799999999999997</v>
@@ -14092,7 +14089,7 @@
     </row>
     <row r="205" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A205" s="5" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="B205" s="1">
         <v>0</v>
@@ -14134,10 +14131,10 @@
         <v>38</v>
       </c>
       <c r="O205" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P205" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q205">
         <v>28.5</v>
@@ -14151,7 +14148,7 @@
     </row>
     <row r="206" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A206" s="5" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B206" s="1">
         <v>0</v>
@@ -14193,10 +14190,10 @@
         <v>28.9</v>
       </c>
       <c r="O206" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P206" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q206">
         <v>34.700000000000003</v>
@@ -14210,7 +14207,7 @@
     </row>
     <row r="207" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A207" s="5" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B207" s="1">
         <v>0</v>
@@ -14252,10 +14249,10 @@
         <v>20.100000000000001</v>
       </c>
       <c r="O207" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P207" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q207">
         <v>36.299999999999997</v>
@@ -14269,7 +14266,7 @@
     </row>
     <row r="208" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A208" s="4" t="s">
-        <v>157</v>
+        <v>351</v>
       </c>
       <c r="B208" s="2">
         <v>0</v>
@@ -14328,7 +14325,7 @@
     </row>
     <row r="209" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A209" s="5" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B209" s="1">
         <v>0</v>
@@ -14370,10 +14367,10 @@
         <v>31.4</v>
       </c>
       <c r="O209" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P209" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q209">
         <v>49.1</v>
@@ -14387,7 +14384,7 @@
     </row>
     <row r="210" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A210" s="5" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B210" s="1">
         <v>0</v>
@@ -14429,10 +14426,10 @@
         <v>46.1</v>
       </c>
       <c r="O210" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P210" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q210">
         <v>40.799999999999997</v>
@@ -14446,7 +14443,7 @@
     </row>
     <row r="211" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A211" s="5" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B211" s="1">
         <v>0</v>
@@ -14488,10 +14485,10 @@
         <v>51.7</v>
       </c>
       <c r="O211" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P211" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q211">
         <v>41</v>
@@ -14505,7 +14502,7 @@
     </row>
     <row r="212" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A212" s="5" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B212" s="1">
         <v>0</v>
@@ -14547,10 +14544,10 @@
         <v>42.1</v>
       </c>
       <c r="O212" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P212" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q212">
         <v>39</v>
@@ -14564,7 +14561,7 @@
     </row>
     <row r="213" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A213" s="5" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B213" s="1">
         <v>0</v>
@@ -14606,10 +14603,10 @@
         <v>39.5</v>
       </c>
       <c r="O213" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P213" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q213">
         <v>43.5</v>
@@ -14623,7 +14620,7 @@
     </row>
     <row r="214" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A214" s="5" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B214" s="1">
         <v>0</v>
@@ -14665,10 +14662,10 @@
         <v>62.1</v>
       </c>
       <c r="O214" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P214" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q214">
         <v>34.5</v>
@@ -14682,7 +14679,7 @@
     </row>
     <row r="215" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A215" s="5" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B215" s="1">
         <v>0</v>
@@ -14724,10 +14721,10 @@
         <v>47</v>
       </c>
       <c r="O215" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P215" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q215">
         <v>42.5</v>
@@ -14741,7 +14738,7 @@
     </row>
     <row r="216" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A216" s="5" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B216" s="1">
         <v>0</v>
@@ -14783,10 +14780,10 @@
         <v>34.5</v>
       </c>
       <c r="O216" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P216" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q216">
         <v>49.8</v>
@@ -14800,7 +14797,7 @@
     </row>
     <row r="217" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A217" s="5" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B217" s="1">
         <v>0</v>
@@ -14842,10 +14839,10 @@
         <v>45.7</v>
       </c>
       <c r="O217" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P217" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q217">
         <v>41.5</v>
@@ -14859,7 +14856,7 @@
     </row>
     <row r="218" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A218" s="5" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B218" s="1">
         <v>0</v>
@@ -14901,10 +14898,10 @@
         <v>42.8</v>
       </c>
       <c r="O218" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P218" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q218">
         <v>48.9</v>
@@ -14918,7 +14915,7 @@
     </row>
     <row r="219" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A219" s="5" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B219" s="1">
         <v>0</v>
@@ -14951,7 +14948,7 @@
         <v>7.8</v>
       </c>
       <c r="L219" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M219">
         <v>1.5</v>
@@ -14960,10 +14957,10 @@
         <v>51.3</v>
       </c>
       <c r="O219" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P219" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q219">
         <v>43.7</v>
@@ -14972,12 +14969,12 @@
         <v>58.5</v>
       </c>
       <c r="S219" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="220" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A220" s="5" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B220" s="1">
         <v>0</v>
@@ -15019,10 +15016,10 @@
         <v>42.9</v>
       </c>
       <c r="O220" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P220" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q220">
         <v>40.299999999999997</v>
@@ -15036,7 +15033,7 @@
     </row>
     <row r="221" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A221" s="5" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="B221" s="1">
         <v>0</v>
@@ -15078,10 +15075,10 @@
         <v>37.6</v>
       </c>
       <c r="O221" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P221" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q221">
         <v>45.3</v>
@@ -15095,7 +15092,7 @@
     </row>
     <row r="222" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A222" s="5" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B222" s="1">
         <v>0</v>
@@ -15137,10 +15134,10 @@
         <v>41.9</v>
       </c>
       <c r="O222" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P222" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q222">
         <v>44</v>
@@ -15154,7 +15151,7 @@
     </row>
     <row r="223" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A223" s="5" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B223" s="1">
         <v>0</v>
@@ -15196,10 +15193,10 @@
         <v>35.200000000000003</v>
       </c>
       <c r="O223" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P223" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q223">
         <v>48.5</v>
@@ -15213,7 +15210,7 @@
     </row>
     <row r="224" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A224" s="5" t="s">
-        <v>335</v>
+        <v>304</v>
       </c>
       <c r="B224" s="1">
         <v>0</v>
@@ -15255,10 +15252,10 @@
         <v>42.4</v>
       </c>
       <c r="O224" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P224" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q224">
         <v>41.3</v>
@@ -15272,7 +15269,7 @@
     </row>
     <row r="225" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A225" s="5" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B225" s="1">
         <v>0</v>
@@ -15314,10 +15311,10 @@
         <v>45.8</v>
       </c>
       <c r="O225" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P225" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q225">
         <v>44.7</v>
@@ -15331,7 +15328,7 @@
     </row>
     <row r="226" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A226" s="5" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B226" s="1">
         <v>0</v>
@@ -15373,10 +15370,10 @@
         <v>38.5</v>
       </c>
       <c r="O226" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P226" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q226">
         <v>45.5</v>
@@ -15390,7 +15387,7 @@
     </row>
     <row r="227" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A227" s="4" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B227" s="2">
         <v>0</v>
@@ -15449,7 +15446,7 @@
     </row>
     <row r="228" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A228" s="4" t="s">
-        <v>176</v>
+        <v>333</v>
       </c>
       <c r="B228" s="2">
         <v>0</v>
@@ -15508,7 +15505,7 @@
     </row>
     <row r="229" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A229" s="5" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="B229" s="1">
         <v>0</v>
@@ -15550,10 +15547,10 @@
         <v>38.799999999999997</v>
       </c>
       <c r="O229" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P229" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q229">
         <v>35</v>
@@ -15567,7 +15564,7 @@
     </row>
     <row r="230" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A230" s="5" t="s">
-        <v>337</v>
+        <v>306</v>
       </c>
       <c r="B230" s="1">
         <v>0</v>
@@ -15609,10 +15606,10 @@
         <v>32.6</v>
       </c>
       <c r="O230" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P230" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q230">
         <v>39.4</v>
@@ -15626,7 +15623,7 @@
     </row>
     <row r="231" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A231" s="5" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="B231" s="1">
         <v>0</v>
@@ -15668,10 +15665,10 @@
         <v>50.1</v>
       </c>
       <c r="O231" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P231" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q231">
         <v>37.799999999999997</v>
@@ -15685,7 +15682,7 @@
     </row>
     <row r="232" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A232" s="5" t="s">
-        <v>338</v>
+        <v>307</v>
       </c>
       <c r="B232" s="1">
         <v>0</v>
@@ -15727,10 +15724,10 @@
         <v>37.6</v>
       </c>
       <c r="O232" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P232" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q232">
         <v>37.1</v>
@@ -15744,7 +15741,7 @@
     </row>
     <row r="233" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A233" s="5" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="B233" s="1">
         <v>0</v>
@@ -15786,10 +15783,10 @@
         <v>41.2</v>
       </c>
       <c r="O233" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P233" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q233">
         <v>40.6</v>
@@ -15803,7 +15800,7 @@
     </row>
     <row r="234" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A234" s="4" t="s">
-        <v>179</v>
+        <v>352</v>
       </c>
       <c r="B234" s="2">
         <v>0</v>
@@ -15862,7 +15859,7 @@
     </row>
     <row r="235" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A235" s="5" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="B235" s="1">
         <v>0</v>
@@ -15904,10 +15901,10 @@
         <v>56</v>
       </c>
       <c r="O235" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P235" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q235">
         <v>34.299999999999997</v>
@@ -15921,7 +15918,7 @@
     </row>
     <row r="236" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A236" s="5" t="s">
-        <v>339</v>
+        <v>308</v>
       </c>
       <c r="B236" s="1">
         <v>0</v>
@@ -15963,10 +15960,10 @@
         <v>39.200000000000003</v>
       </c>
       <c r="O236" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P236" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q236">
         <v>36.6</v>
@@ -15980,7 +15977,7 @@
     </row>
     <row r="237" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A237" s="5" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="B237" s="1">
         <v>0</v>
@@ -16022,10 +16019,10 @@
         <v>26.5</v>
       </c>
       <c r="O237" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P237" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q237">
         <v>44.4</v>
@@ -16039,7 +16036,7 @@
     </row>
     <row r="238" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A238" s="5" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="B238" s="1">
         <v>0</v>
@@ -16081,10 +16078,10 @@
         <v>34.299999999999997</v>
       </c>
       <c r="O238" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P238" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q238">
         <v>41.4</v>
@@ -16098,7 +16095,7 @@
     </row>
     <row r="239" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A239" s="5" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="B239" s="1">
         <v>0</v>
@@ -16140,10 +16137,10 @@
         <v>48.2</v>
       </c>
       <c r="O239" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P239" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q239">
         <v>38.9</v>
@@ -16157,7 +16154,7 @@
     </row>
     <row r="240" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A240" s="5" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="B240" s="1">
         <v>0</v>
@@ -16199,10 +16196,10 @@
         <v>42.6</v>
       </c>
       <c r="O240" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P240" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q240">
         <v>42.1</v>
@@ -16216,7 +16213,7 @@
     </row>
     <row r="241" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A241" s="5" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="B241" s="1">
         <v>0</v>
@@ -16258,10 +16255,10 @@
         <v>33</v>
       </c>
       <c r="O241" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P241" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q241">
         <v>43.4</v>
@@ -16275,7 +16272,7 @@
     </row>
     <row r="242" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A242" s="5" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="B242" s="1">
         <v>0</v>
@@ -16317,10 +16314,10 @@
         <v>33.1</v>
       </c>
       <c r="O242" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P242" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q242">
         <v>38.1</v>
@@ -16334,7 +16331,7 @@
     </row>
     <row r="243" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A243" s="5" t="s">
-        <v>340</v>
+        <v>309</v>
       </c>
       <c r="B243" s="1">
         <v>0</v>
@@ -16376,10 +16373,10 @@
         <v>30.4</v>
       </c>
       <c r="O243" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P243" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q243">
         <v>28.5</v>
@@ -16393,7 +16390,7 @@
     </row>
     <row r="244" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A244" s="5" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B244" s="1">
         <v>0</v>
@@ -16435,10 +16432,10 @@
         <v>46.6</v>
       </c>
       <c r="O244" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P244" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q244">
         <v>40</v>
@@ -16452,7 +16449,7 @@
     </row>
     <row r="245" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A245" s="5" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="B245" s="1">
         <v>0</v>
@@ -16494,10 +16491,10 @@
         <v>44.5</v>
       </c>
       <c r="O245" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P245" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q245">
         <v>37.700000000000003</v>
@@ -16511,7 +16508,7 @@
     </row>
     <row r="246" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A246" s="5" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B246" s="1">
         <v>0</v>
@@ -16553,10 +16550,10 @@
         <v>35.299999999999997</v>
       </c>
       <c r="O246" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P246" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q246">
         <v>38.1</v>
@@ -16570,7 +16567,7 @@
     </row>
     <row r="247" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A247" s="5" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B247" s="1">
         <v>0</v>
@@ -16612,10 +16609,10 @@
         <v>44.8</v>
       </c>
       <c r="O247" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P247" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q247">
         <v>41.1</v>
@@ -16629,7 +16626,7 @@
     </row>
     <row r="248" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A248" s="4" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="B248" s="2">
         <v>0</v>
@@ -16688,7 +16685,7 @@
     </row>
     <row r="249" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A249" s="5" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="B249" s="1">
         <v>0</v>
@@ -16730,10 +16727,10 @@
         <v>31.9</v>
       </c>
       <c r="O249" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P249" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q249">
         <v>40.9</v>
@@ -16747,7 +16744,7 @@
     </row>
     <row r="250" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A250" s="5" t="s">
-        <v>342</v>
+        <v>310</v>
       </c>
       <c r="B250" s="1">
         <v>0</v>
@@ -16789,10 +16786,10 @@
         <v>27.9</v>
       </c>
       <c r="O250" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P250" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q250">
         <v>37.4</v>
@@ -16806,7 +16803,7 @@
     </row>
     <row r="251" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A251" s="5" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B251" s="1">
         <v>0</v>
@@ -16848,10 +16845,10 @@
         <v>35.9</v>
       </c>
       <c r="O251" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P251" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q251">
         <v>41.6</v>
@@ -16865,7 +16862,7 @@
     </row>
     <row r="252" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A252" s="5" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B252" s="1">
         <v>0</v>
@@ -16907,10 +16904,10 @@
         <v>32.200000000000003</v>
       </c>
       <c r="O252" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P252" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q252">
         <v>47.8</v>
@@ -16924,7 +16921,7 @@
     </row>
     <row r="253" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A253" s="5" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="B253" s="1">
         <v>0</v>
@@ -16966,10 +16963,10 @@
         <v>36.4</v>
       </c>
       <c r="O253" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P253" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q253">
         <v>42.8</v>
@@ -16983,7 +16980,7 @@
     </row>
     <row r="254" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A254" s="5" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B254" s="1">
         <v>0</v>
@@ -17025,10 +17022,10 @@
         <v>36.5</v>
       </c>
       <c r="O254" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P254" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q254">
         <v>34.1</v>
@@ -17042,7 +17039,7 @@
     </row>
     <row r="255" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A255" s="5" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="B255" s="1">
         <v>0</v>
@@ -17084,10 +17081,10 @@
         <v>38.299999999999997</v>
       </c>
       <c r="O255" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P255" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q255">
         <v>32.799999999999997</v>
@@ -17101,7 +17098,7 @@
     </row>
     <row r="256" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A256" s="5" t="s">
-        <v>343</v>
+        <v>311</v>
       </c>
       <c r="B256" s="1">
         <v>0</v>
@@ -17143,10 +17140,10 @@
         <v>31.4</v>
       </c>
       <c r="O256" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P256" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q256">
         <v>39.5</v>
@@ -17160,7 +17157,7 @@
     </row>
     <row r="257" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A257" s="5" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="B257" s="1">
         <v>0</v>
@@ -17202,10 +17199,10 @@
         <v>42.2</v>
       </c>
       <c r="O257" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P257" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q257">
         <v>39.9</v>
@@ -17219,7 +17216,7 @@
     </row>
     <row r="258" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A258" s="5" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="B258" s="1">
         <v>0</v>
@@ -17261,10 +17258,10 @@
         <v>35.5</v>
       </c>
       <c r="O258" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P258" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q258">
         <v>41.7</v>
@@ -17278,7 +17275,7 @@
     </row>
     <row r="259" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A259" s="5" t="s">
-        <v>344</v>
+        <v>312</v>
       </c>
       <c r="B259" s="1">
         <v>0</v>
@@ -17320,10 +17317,10 @@
         <v>36.200000000000003</v>
       </c>
       <c r="O259" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P259" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q259">
         <v>38.9</v>
@@ -17337,7 +17334,7 @@
     </row>
     <row r="260" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A260" s="4" t="s">
-        <v>199</v>
+        <v>354</v>
       </c>
       <c r="B260" s="2">
         <v>0</v>
@@ -17396,7 +17393,7 @@
     </row>
     <row r="261" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A261" s="5" t="s">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="B261" s="1">
         <v>0</v>
@@ -17438,10 +17435,10 @@
         <v>25.5</v>
       </c>
       <c r="O261" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P261" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q261">
         <v>38.1</v>
@@ -17455,7 +17452,7 @@
     </row>
     <row r="262" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A262" s="5" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="B262" s="1">
         <v>0</v>
@@ -17497,10 +17494,10 @@
         <v>26.1</v>
       </c>
       <c r="O262" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P262" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q262">
         <v>40.6</v>
@@ -17514,7 +17511,7 @@
     </row>
     <row r="263" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A263" s="5" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="B263" s="1">
         <v>0</v>
@@ -17556,10 +17553,10 @@
         <v>26.1</v>
       </c>
       <c r="O263" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P263" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q263">
         <v>37.5</v>
@@ -17573,7 +17570,7 @@
     </row>
     <row r="264" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A264" s="5" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="B264" s="1">
         <v>0</v>
@@ -17615,10 +17612,10 @@
         <v>34.5</v>
       </c>
       <c r="O264" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P264" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q264">
         <v>41.7</v>
@@ -17632,7 +17629,7 @@
     </row>
     <row r="265" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A265" s="5" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="B265" s="1">
         <v>0</v>
@@ -17674,10 +17671,10 @@
         <v>33.5</v>
       </c>
       <c r="O265" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P265" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q265">
         <v>36.299999999999997</v>
@@ -17691,7 +17688,7 @@
     </row>
     <row r="266" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A266" s="5" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="B266" s="1">
         <v>0</v>
@@ -17733,10 +17730,10 @@
         <v>30.8</v>
       </c>
       <c r="O266" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P266" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q266">
         <v>34.6</v>
@@ -17750,7 +17747,7 @@
     </row>
     <row r="267" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A267" s="5" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="B267" s="1">
         <v>0</v>
@@ -17792,10 +17789,10 @@
         <v>34.200000000000003</v>
       </c>
       <c r="O267" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P267" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q267">
         <v>40.6</v>
@@ -17809,7 +17806,7 @@
     </row>
     <row r="268" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A268" s="5" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="B268" s="1">
         <v>0</v>
@@ -17851,10 +17848,10 @@
         <v>26.4</v>
       </c>
       <c r="O268" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P268" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q268">
         <v>39.4</v>
@@ -17868,7 +17865,7 @@
     </row>
     <row r="269" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A269" s="5" t="s">
-        <v>346</v>
+        <v>314</v>
       </c>
       <c r="B269" s="1">
         <v>0</v>
@@ -17910,10 +17907,10 @@
         <v>18.399999999999999</v>
       </c>
       <c r="O269" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P269" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q269">
         <v>31.1</v>
@@ -17927,7 +17924,7 @@
     </row>
     <row r="270" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A270" s="5" t="s">
-        <v>347</v>
+        <v>315</v>
       </c>
       <c r="B270" s="1">
         <v>0</v>
@@ -17969,10 +17966,10 @@
         <v>27.4</v>
       </c>
       <c r="O270" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P270" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q270">
         <v>35.299999999999997</v>
@@ -17986,7 +17983,7 @@
     </row>
     <row r="271" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A271" s="5" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="B271" s="1">
         <v>0</v>
@@ -18028,10 +18025,10 @@
         <v>34.6</v>
       </c>
       <c r="O271" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P271" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q271">
         <v>42.7</v>
@@ -18045,7 +18042,7 @@
     </row>
     <row r="272" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A272" s="5" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="B272" s="1">
         <v>0</v>
@@ -18087,10 +18084,10 @@
         <v>25.5</v>
       </c>
       <c r="O272" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P272" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q272">
         <v>34.200000000000003</v>
@@ -18104,7 +18101,7 @@
     </row>
     <row r="273" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A273" s="5" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="B273" s="1">
         <v>0</v>
@@ -18146,10 +18143,10 @@
         <v>38.700000000000003</v>
       </c>
       <c r="O273" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P273" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q273">
         <v>37.5</v>
@@ -18163,7 +18160,7 @@
     </row>
     <row r="274" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A274" s="5" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="B274" s="1">
         <v>0</v>
@@ -18205,10 +18202,10 @@
         <v>40.4</v>
       </c>
       <c r="O274" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P274" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q274">
         <v>36.9</v>
@@ -18222,7 +18219,7 @@
     </row>
     <row r="275" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A275" s="5" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="B275" s="1">
         <v>0</v>
@@ -18264,10 +18261,10 @@
         <v>32.9</v>
       </c>
       <c r="O275" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P275" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q275">
         <v>35.299999999999997</v>
@@ -18281,7 +18278,7 @@
     </row>
     <row r="276" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A276" s="4" t="s">
-        <v>212</v>
+        <v>355</v>
       </c>
       <c r="B276" s="2">
         <v>0</v>
@@ -18340,7 +18337,7 @@
     </row>
     <row r="277" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A277" s="5" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="B277" s="1">
         <v>0</v>
@@ -18382,10 +18379,10 @@
         <v>21.1</v>
       </c>
       <c r="O277" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P277" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q277">
         <v>32.799999999999997</v>
@@ -18399,7 +18396,7 @@
     </row>
     <row r="278" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A278" s="5" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="B278" s="1">
         <v>0</v>
@@ -18441,10 +18438,10 @@
         <v>26.4</v>
       </c>
       <c r="O278" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P278" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q278">
         <v>39.299999999999997</v>
@@ -18458,7 +18455,7 @@
     </row>
     <row r="279" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A279" s="5" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="B279" s="1">
         <v>0</v>
@@ -18500,10 +18497,10 @@
         <v>30.9</v>
       </c>
       <c r="O279" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P279" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q279">
         <v>38.1</v>
@@ -18517,7 +18514,7 @@
     </row>
     <row r="280" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A280" s="5" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="B280" s="1">
         <v>0</v>
@@ -18559,10 +18556,10 @@
         <v>37.299999999999997</v>
       </c>
       <c r="O280" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P280" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q280">
         <v>35.700000000000003</v>
@@ -18576,7 +18573,7 @@
     </row>
     <row r="281" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A281" s="5" t="s">
-        <v>348</v>
+        <v>316</v>
       </c>
       <c r="B281" s="1">
         <v>0</v>
@@ -18618,10 +18615,10 @@
         <v>43.2</v>
       </c>
       <c r="O281" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P281" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q281">
         <v>40.1</v>
@@ -18635,7 +18632,7 @@
     </row>
     <row r="282" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A282" s="5" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="B282" s="1">
         <v>0</v>
@@ -18677,10 +18674,10 @@
         <v>33.5</v>
       </c>
       <c r="O282" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P282" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q282">
         <v>36.9</v>
@@ -18694,7 +18691,7 @@
     </row>
     <row r="283" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A283" s="5" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="B283" s="1">
         <v>0</v>
@@ -18736,10 +18733,10 @@
         <v>33.9</v>
       </c>
       <c r="O283" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P283" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q283">
         <v>32.5</v>
@@ -18753,7 +18750,7 @@
     </row>
     <row r="284" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A284" s="5" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="B284" s="1">
         <v>0</v>
@@ -18795,10 +18792,10 @@
         <v>43.1</v>
       </c>
       <c r="O284" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P284" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q284">
         <v>41.5</v>
@@ -18812,7 +18809,7 @@
     </row>
     <row r="285" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A285" s="5" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="B285" s="1">
         <v>0</v>
@@ -18854,10 +18851,10 @@
         <v>35.299999999999997</v>
       </c>
       <c r="O285" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P285" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q285">
         <v>37.5</v>
@@ -18871,7 +18868,7 @@
     </row>
     <row r="286" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A286" s="5" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="B286" s="1">
         <v>0</v>
@@ -18913,10 +18910,10 @@
         <v>33.5</v>
       </c>
       <c r="O286" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P286" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q286">
         <v>42</v>
@@ -18930,7 +18927,7 @@
     </row>
     <row r="287" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A287" s="5" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="B287" s="1">
         <v>0</v>
@@ -18972,10 +18969,10 @@
         <v>39.700000000000003</v>
       </c>
       <c r="O287" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P287" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q287">
         <v>40</v>
@@ -18989,7 +18986,7 @@
     </row>
     <row r="288" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A288" s="5" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="B288" s="1">
         <v>0</v>
@@ -19031,10 +19028,10 @@
         <v>31.7</v>
       </c>
       <c r="O288" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P288" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q288">
         <v>40.6</v>
@@ -19048,7 +19045,7 @@
     </row>
     <row r="289" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A289" s="5" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="B289" s="1">
         <v>0</v>
@@ -19090,10 +19087,10 @@
         <v>41.2</v>
       </c>
       <c r="O289" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P289" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q289">
         <v>42.1</v>
@@ -19107,7 +19104,7 @@
     </row>
     <row r="290" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A290" s="5" t="s">
-        <v>350</v>
+        <v>318</v>
       </c>
       <c r="B290" s="1">
         <v>0</v>
@@ -19149,10 +19146,10 @@
         <v>29</v>
       </c>
       <c r="O290" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P290" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q290">
         <v>37.9</v>
@@ -19166,7 +19163,7 @@
     </row>
     <row r="291" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A291" s="4" t="s">
-        <v>224</v>
+        <v>356</v>
       </c>
       <c r="B291" s="2">
         <v>0</v>
@@ -19225,7 +19222,7 @@
     </row>
     <row r="292" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A292" s="5" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="B292" s="1">
         <v>0</v>
@@ -19267,10 +19264,10 @@
         <v>51.7</v>
       </c>
       <c r="O292" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P292" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q292">
         <v>44.4</v>
@@ -19284,7 +19281,7 @@
     </row>
     <row r="293" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A293" s="5" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="B293" s="1">
         <v>0</v>
@@ -19326,10 +19323,10 @@
         <v>38.299999999999997</v>
       </c>
       <c r="O293" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P293" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q293">
         <v>25.1</v>
@@ -19343,7 +19340,7 @@
     </row>
     <row r="294" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A294" s="5" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="B294" s="1">
         <v>0</v>
@@ -19385,10 +19382,10 @@
         <v>47.8</v>
       </c>
       <c r="O294" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P294" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q294">
         <v>35.5</v>
@@ -19402,7 +19399,7 @@
     </row>
     <row r="295" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A295" s="5" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="B295" s="1">
         <v>0</v>
@@ -19444,10 +19441,10 @@
         <v>47</v>
       </c>
       <c r="O295" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P295" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q295">
         <v>39.5</v>
@@ -19461,7 +19458,7 @@
     </row>
     <row r="296" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A296" s="5" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="B296" s="1">
         <v>0</v>
@@ -19503,10 +19500,10 @@
         <v>51.5</v>
       </c>
       <c r="O296" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P296" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q296">
         <v>40.6</v>
@@ -19520,7 +19517,7 @@
     </row>
     <row r="297" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A297" s="5" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="B297" s="1">
         <v>0</v>
@@ -19562,10 +19559,10 @@
         <v>41.8</v>
       </c>
       <c r="O297" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P297" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q297">
         <v>43.4</v>
@@ -19579,7 +19576,7 @@
     </row>
     <row r="298" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A298" s="5" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="B298" s="1">
         <v>0</v>
@@ -19621,10 +19618,10 @@
         <v>40.799999999999997</v>
       </c>
       <c r="O298" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P298" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q298">
         <v>43</v>
@@ -19638,7 +19635,7 @@
     </row>
     <row r="299" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A299" s="5" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="B299" s="1">
         <v>0</v>
@@ -19680,10 +19677,10 @@
         <v>44.3</v>
       </c>
       <c r="O299" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P299" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q299">
         <v>41.8</v>
@@ -19697,7 +19694,7 @@
     </row>
     <row r="300" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A300" s="5" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="B300" s="1">
         <v>0</v>
@@ -19739,10 +19736,10 @@
         <v>49.1</v>
       </c>
       <c r="O300" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P300" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q300">
         <v>31.3</v>
@@ -19756,7 +19753,7 @@
     </row>
     <row r="301" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A301" s="5" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="B301" s="1">
         <v>0</v>
@@ -19798,10 +19795,10 @@
         <v>41.5</v>
       </c>
       <c r="O301" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P301" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q301">
         <v>44.9</v>
@@ -19815,7 +19812,7 @@
     </row>
     <row r="302" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A302" s="5" t="s">
-        <v>353</v>
+        <v>321</v>
       </c>
       <c r="B302" s="1">
         <v>0</v>
@@ -19857,10 +19854,10 @@
         <v>49.9</v>
       </c>
       <c r="O302" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P302" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q302">
         <v>43.1</v>
@@ -19874,7 +19871,7 @@
     </row>
     <row r="303" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A303" s="5" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="B303" s="1">
         <v>0</v>
@@ -19916,10 +19913,10 @@
         <v>44.8</v>
       </c>
       <c r="O303" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P303" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q303">
         <v>41.3</v>
@@ -19933,7 +19930,7 @@
     </row>
     <row r="304" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A304" s="5" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="B304" s="1">
         <v>0</v>
@@ -19975,10 +19972,10 @@
         <v>49.3</v>
       </c>
       <c r="O304" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P304" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q304">
         <v>40.6</v>
@@ -19992,7 +19989,7 @@
     </row>
     <row r="305" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A305" s="5" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="B305" s="1">
         <v>0</v>
@@ -20034,10 +20031,10 @@
         <v>38.6</v>
       </c>
       <c r="O305" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P305" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q305">
         <v>39.799999999999997</v>
@@ -20051,7 +20048,7 @@
     </row>
     <row r="306" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A306" s="5" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="B306" s="1">
         <v>0</v>
@@ -20093,10 +20090,10 @@
         <v>38</v>
       </c>
       <c r="O306" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P306" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q306">
         <v>39.700000000000003</v>
@@ -20110,7 +20107,7 @@
     </row>
     <row r="307" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A307" s="5" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="B307" s="1">
         <v>0</v>
@@ -20152,10 +20149,10 @@
         <v>31.8</v>
       </c>
       <c r="O307" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P307" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q307">
         <v>42</v>
@@ -20169,7 +20166,7 @@
     </row>
     <row r="308" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A308" s="4" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
       <c r="B308" s="2">
         <v>1</v>
@@ -20228,7 +20225,7 @@
     </row>
     <row r="309" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A309" s="4" t="s">
-        <v>236</v>
+        <v>357</v>
       </c>
       <c r="B309" s="2">
         <v>0</v>
@@ -20270,10 +20267,10 @@
         <v>25.7</v>
       </c>
       <c r="O309" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P309" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q309">
         <v>48.6</v>
@@ -20287,7 +20284,7 @@
     </row>
     <row r="310" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A310" s="5" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="B310" s="1">
         <v>0</v>
@@ -20329,10 +20326,10 @@
         <v>25.7</v>
       </c>
       <c r="O310" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P310" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q310">
         <v>48.6</v>
@@ -20346,7 +20343,7 @@
     </row>
     <row r="311" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A311" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B311" s="2">
         <v>0</v>
@@ -20388,10 +20385,10 @@
         <v>36.1</v>
       </c>
       <c r="O311" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P311" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q311">
         <v>50.5</v>
@@ -20405,7 +20402,7 @@
     </row>
     <row r="312" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A312" s="5" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="B312" s="1">
         <v>0</v>
@@ -20447,10 +20444,10 @@
         <v>32.5</v>
       </c>
       <c r="O312" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P312" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q312">
         <v>52.1</v>
@@ -20464,7 +20461,7 @@
     </row>
     <row r="313" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A313" s="5" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="B313" s="1">
         <v>0</v>
@@ -20506,10 +20503,10 @@
         <v>35.799999999999997</v>
       </c>
       <c r="O313" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P313" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q313">
         <v>45.1</v>
@@ -20523,7 +20520,7 @@
     </row>
     <row r="314" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A314" s="5" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="B314" s="1">
         <v>0</v>
@@ -20565,10 +20562,10 @@
         <v>35.9</v>
       </c>
       <c r="O314" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P314" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q314">
         <v>49.2</v>
@@ -20582,7 +20579,7 @@
     </row>
     <row r="315" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A315" s="5" t="s">
-        <v>358</v>
+        <v>325</v>
       </c>
       <c r="B315" s="1">
         <v>0</v>
@@ -20624,10 +20621,10 @@
         <v>23.1</v>
       </c>
       <c r="O315" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P315" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q315">
         <v>48.3</v>
@@ -20641,7 +20638,7 @@
     </row>
     <row r="316" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A316" s="5" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="B316" s="1">
         <v>0</v>
@@ -20683,10 +20680,10 @@
         <v>42.2</v>
       </c>
       <c r="O316" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P316" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q316">
         <v>53.4</v>
@@ -20700,7 +20697,7 @@
     </row>
     <row r="317" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A317" s="5" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="B317" s="1">
         <v>0</v>
@@ -20742,10 +20739,10 @@
         <v>31.4</v>
       </c>
       <c r="O317" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P317" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q317">
         <v>51.4</v>
@@ -20759,7 +20756,7 @@
     </row>
     <row r="318" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A318" s="4" t="s">
-        <v>243</v>
+        <v>359</v>
       </c>
       <c r="B318" s="2">
         <v>0</v>
@@ -20801,10 +20798,10 @@
         <v>33.200000000000003</v>
       </c>
       <c r="O318" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P318" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q318">
         <v>47</v>
@@ -20818,7 +20815,7 @@
     </row>
     <row r="319" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A319" s="5" t="s">
-        <v>359</v>
+        <v>326</v>
       </c>
       <c r="B319" s="1">
         <v>0</v>
@@ -20860,10 +20857,10 @@
         <v>35.9</v>
       </c>
       <c r="O319" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P319" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q319">
         <v>45.8</v>
@@ -20877,7 +20874,7 @@
     </row>
     <row r="320" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A320" s="5" t="s">
-        <v>360</v>
+        <v>327</v>
       </c>
       <c r="B320" s="1">
         <v>0</v>
@@ -20919,10 +20916,10 @@
         <v>29.2</v>
       </c>
       <c r="O320" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P320" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q320">
         <v>49.1</v>
@@ -20936,7 +20933,7 @@
     </row>
     <row r="321" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A321" s="4" t="s">
-        <v>244</v>
+        <v>360</v>
       </c>
       <c r="B321" s="2">
         <v>0</v>
@@ -20978,10 +20975,10 @@
         <v>39.799999999999997</v>
       </c>
       <c r="O321" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P321" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q321">
         <v>46.4</v>
@@ -20995,7 +20992,7 @@
     </row>
     <row r="322" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A322" s="5" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="B322" s="1">
         <v>0</v>
@@ -21037,10 +21034,10 @@
         <v>39.799999999999997</v>
       </c>
       <c r="O322" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P322" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q322">
         <v>46.4</v>
@@ -21096,10 +21093,10 @@
         <v>29.9</v>
       </c>
       <c r="O323" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P323" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q323">
         <v>44.5</v>
@@ -21113,7 +21110,7 @@
     </row>
     <row r="324" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A324" s="5" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="B324" s="1">
         <v>0</v>
@@ -21155,10 +21152,10 @@
         <v>41.9</v>
       </c>
       <c r="O324" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P324" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q324">
         <v>40.1</v>
@@ -21172,7 +21169,7 @@
     </row>
     <row r="325" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A325" s="5" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="B325" s="1">
         <v>0</v>
@@ -21214,10 +21211,10 @@
         <v>23.7</v>
       </c>
       <c r="O325" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P325" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q325">
         <v>47.2</v>
@@ -21231,7 +21228,7 @@
     </row>
     <row r="326" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A326" s="4" t="s">
-        <v>248</v>
+        <v>362</v>
       </c>
       <c r="B326" s="2">
         <v>0</v>
@@ -21273,10 +21270,10 @@
         <v>34.6</v>
       </c>
       <c r="O326" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P326" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q326">
         <v>44.6</v>
@@ -21290,7 +21287,7 @@
     </row>
     <row r="327" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A327" s="5" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="B327" s="1">
         <v>0</v>
@@ -21332,10 +21329,10 @@
         <v>33.299999999999997</v>
       </c>
       <c r="O327" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P327" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q327">
         <v>43.3</v>
@@ -21349,7 +21346,7 @@
     </row>
     <row r="328" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A328" s="5" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="B328" s="1">
         <v>0</v>
@@ -21391,10 +21388,10 @@
         <v>36.9</v>
       </c>
       <c r="O328" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P328" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q328">
         <v>46.1</v>
@@ -21408,7 +21405,7 @@
     </row>
     <row r="329" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A329" s="5" t="s">
-        <v>362</v>
+        <v>328</v>
       </c>
       <c r="B329" s="1">
         <v>0</v>
@@ -21450,10 +21447,10 @@
         <v>31.7</v>
       </c>
       <c r="O329" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P329" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q329">
         <v>43.5</v>
@@ -21467,7 +21464,7 @@
     </row>
     <row r="330" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A330" s="4" t="s">
-        <v>251</v>
+        <v>363</v>
       </c>
       <c r="B330" s="2">
         <v>0</v>
@@ -21509,10 +21506,10 @@
         <v>34.700000000000003</v>
       </c>
       <c r="O330" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P330" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q330">
         <v>46.8</v>
@@ -21526,7 +21523,7 @@
     </row>
     <row r="331" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A331" s="5" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="B331" s="1">
         <v>0</v>
@@ -21568,10 +21565,10 @@
         <v>34.700000000000003</v>
       </c>
       <c r="O331" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P331" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q331">
         <v>46.8</v>
@@ -21585,7 +21582,7 @@
     </row>
     <row r="332" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A332" s="4" t="s">
-        <v>253</v>
+        <v>364</v>
       </c>
       <c r="B332" s="2">
         <v>0</v>
@@ -21627,10 +21624,10 @@
         <v>37.5</v>
       </c>
       <c r="O332" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P332" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q332">
         <v>45.8</v>
@@ -21644,7 +21641,7 @@
     </row>
     <row r="333" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A333" s="5" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="B333" s="1">
         <v>0</v>
@@ -21686,10 +21683,10 @@
         <v>49</v>
       </c>
       <c r="O333" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P333" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q333">
         <v>44.6</v>
@@ -21703,7 +21700,7 @@
     </row>
     <row r="334" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A334" s="5" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="B334" s="1">
         <v>0</v>
@@ -21745,10 +21742,10 @@
         <v>30.8</v>
       </c>
       <c r="O334" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P334" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q334">
         <v>46.5</v>
@@ -21762,7 +21759,7 @@
     </row>
     <row r="335" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A335" s="4" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="B335" s="2">
         <v>0</v>
@@ -21804,10 +21801,10 @@
         <v>12.5</v>
       </c>
       <c r="O335" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P335" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q335">
         <v>39.5</v>
@@ -21821,7 +21818,7 @@
     </row>
     <row r="336" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A336" s="5" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="B336" s="1">
         <v>0</v>
@@ -21863,10 +21860,10 @@
         <v>12.5</v>
       </c>
       <c r="O336" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P336" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q336">
         <v>39.5</v>
@@ -21880,7 +21877,7 @@
     </row>
     <row r="337" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A337" s="6" t="s">
-        <v>258</v>
+        <v>365</v>
       </c>
       <c r="B337" s="2">
         <v>1</v>
@@ -21939,7 +21936,7 @@
     </row>
     <row r="338" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A338" s="5" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
       <c r="B338" s="1">
         <v>0</v>
@@ -21981,10 +21978,10 @@
         <v>29.5</v>
       </c>
       <c r="O338" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P338" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q338">
         <v>40.200000000000003</v>
@@ -21998,7 +21995,7 @@
     </row>
     <row r="339" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A339" s="5" t="s">
-        <v>363</v>
+        <v>329</v>
       </c>
       <c r="B339" s="1">
         <v>0</v>
@@ -22040,10 +22037,10 @@
         <v>35.200000000000003</v>
       </c>
       <c r="O339" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P339" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q339">
         <v>50</v>
@@ -22057,7 +22054,7 @@
     </row>
     <row r="340" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A340" s="5" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="B340" s="1">
         <v>0</v>
@@ -22099,10 +22096,10 @@
         <v>30.7</v>
       </c>
       <c r="O340" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P340" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q340">
         <v>42.9</v>
@@ -22116,7 +22113,7 @@
     </row>
     <row r="341" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A341" s="5" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
       <c r="B341" s="1">
         <v>0</v>
@@ -22158,10 +22155,10 @@
         <v>28.5</v>
       </c>
       <c r="O341" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P341" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q341">
         <v>43.3</v>
@@ -22175,7 +22172,7 @@
     </row>
     <row r="342" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A342" s="5" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="B342" s="1">
         <v>0</v>
@@ -22217,10 +22214,10 @@
         <v>28.2</v>
       </c>
       <c r="O342" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P342" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q342">
         <v>47.1</v>
@@ -22234,7 +22231,7 @@
     </row>
     <row r="343" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A343" s="5" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="B343" s="1">
         <v>0</v>
@@ -22276,10 +22273,10 @@
         <v>20.2</v>
       </c>
       <c r="O343" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P343" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q343">
         <v>40.200000000000003</v>
@@ -22293,7 +22290,7 @@
     </row>
     <row r="344" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A344" s="5" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="B344" s="1">
         <v>0</v>
@@ -22335,10 +22332,10 @@
         <v>33.200000000000003</v>
       </c>
       <c r="O344" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P344" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q344">
         <v>45.4</v>
@@ -22352,7 +22349,7 @@
     </row>
     <row r="345" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A345" s="5" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="B345" s="1">
         <v>0</v>
@@ -22394,10 +22391,10 @@
         <v>30.4</v>
       </c>
       <c r="O345" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P345" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q345">
         <v>51.5</v>
@@ -22411,7 +22408,7 @@
     </row>
     <row r="346" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A346" s="5" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="B346" s="1">
         <v>0</v>
@@ -22453,10 +22450,10 @@
         <v>29.4</v>
       </c>
       <c r="O346" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P346" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q346">
         <v>37</v>
@@ -22470,7 +22467,7 @@
     </row>
     <row r="347" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A347" s="5" t="s">
-        <v>364</v>
+        <v>330</v>
       </c>
       <c r="B347" s="1">
         <v>0</v>
@@ -22512,10 +22509,10 @@
         <v>21.5</v>
       </c>
       <c r="O347" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P347" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q347">
         <v>40.1</v>
@@ -22529,7 +22526,7 @@
     </row>
     <row r="348" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A348" s="5" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="B348" s="1">
         <v>0</v>
@@ -22571,10 +22568,10 @@
         <v>24.3</v>
       </c>
       <c r="O348" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P348" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Q348">
         <v>49.7</v>
